--- a/readmesrc/readme_sourcetables.xlsx
+++ b/readmesrc/readme_sourcetables.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\OneDrive\Games\QUAKE\keep extras\readmesrc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\GitHub\Keep\Keep\readmesrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemies" sheetId="2" r:id="rId2"/>
+    <sheet name="Point Entities" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -721,6 +722,79 @@
   </si>
   <si>
     <t>Large snake enemy.  Usually used as a boss, though is able to be used multiple times.  Intended to be trapped in a liquid (uses lava splash effect) with minimum depth of 32 and that has an alpha of 1.0 - dives when player is out of sight and the re-emerges later to surprise player.  Needs 368 units of overhead height above the liquid and 80 units of side clearance to avoid model going through walls/ceiling.</t>
+  </si>
+  <si>
+    <t>Splash Effect</t>
+  </si>
+  <si>
+    <t>misc_splash</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>Time between bursts</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>Particles per burst</t>
+  </si>
+  <si>
+    <t>Effect emitter that creats particles moving upward to simulate splash or spray, e.g. from a waterfall.  Default settings emit 10 particles every 0.1s for a rate of 100 particles per second.
+Color settings correspond to every 16th index color in the 256 color palette.  The value gets random colors on that row centered about that index value.</t>
+  </si>
+  <si>
+    <t>Light Gray</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blood Red</t>
+  </si>
+  <si>
+    <t>Greenish Brown</t>
+  </si>
+  <si>
+    <t>Reddish Brown</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Pale Purple</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Pale Tan</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Vivid Blue</t>
+  </si>
+  <si>
+    <t>Bright Red</t>
+  </si>
+  <si>
+    <t>Lava and Smoke</t>
   </si>
 </sst>
 </file>
@@ -953,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1018,15 +1092,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,6 +1119,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,14 +1137,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1102,32 +1176,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,13 +1685,13 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1620,11 +1703,11 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1638,11 +1721,11 @@
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1656,11 +1739,11 @@
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="52"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1674,11 +1757,11 @@
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1692,11 +1775,11 @@
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="58"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1708,143 +1791,143 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
@@ -1866,13 +1949,13 @@
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1882,179 +1965,179 @@
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="13"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -2069,18 +2152,18 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -2102,13 +2185,13 @@
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2118,102 +2201,102 @@
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
@@ -2226,89 +2309,89 @@
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="13"/>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="33"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
@@ -2324,6 +2407,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C20:E24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:J31"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="H44:J49"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A50:J50"/>
@@ -2340,36 +2453,6 @@
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F36:J36"/>
     <mergeCell ref="F37:J43"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C20:E24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:J31"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2381,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262:E262"/>
+    <sheetView topLeftCell="A257" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,19 +2484,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="56"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2425,11 +2508,11 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2438,14 +2521,14 @@
       <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2454,14 +2537,14 @@
       <c r="B4" s="3">
         <v>3000</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2470,14 +2553,14 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2486,142 +2569,142 @@
       <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="29">
         <v>1000</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="29">
         <v>1000</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="29">
         <v>1000</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="30">
         <v>1000</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
@@ -2642,16 +2725,16 @@
       <c r="B15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="47" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2660,14 +2743,14 @@
       <c r="B16" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2676,14 +2759,14 @@
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2692,14 +2775,14 @@
       <c r="B18" s="3">
         <v>30</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2708,14 +2791,14 @@
       <c r="B19" s="3">
         <v>-35</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2724,14 +2807,14 @@
       <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2740,68 +2823,68 @@
       <c r="B21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2822,16 +2905,16 @@
       <c r="B26" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2840,14 +2923,14 @@
       <c r="B27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2856,14 +2939,14 @@
       <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2872,14 +2955,14 @@
       <c r="B29" s="3">
         <v>60</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2888,14 +2971,14 @@
       <c r="B30" s="3">
         <v>-35</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2904,14 +2987,14 @@
       <c r="B31" s="5">
         <v>20</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2920,68 +3003,68 @@
       <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -3005,13 +3088,13 @@
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -3023,11 +3106,11 @@
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3036,14 +3119,14 @@
       <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3052,14 +3135,14 @@
       <c r="B40" s="3">
         <v>75</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3068,14 +3151,14 @@
       <c r="B41" s="3">
         <v>-35</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -3084,14 +3167,14 @@
       <c r="B42" s="5">
         <v>20</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -3100,68 +3183,68 @@
       <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="33"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -3173,13 +3256,13 @@
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="E48" s="46"/>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -3191,11 +3274,11 @@
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="46"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3204,14 +3287,14 @@
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3220,14 +3303,14 @@
       <c r="B51" s="3">
         <v>45</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3236,14 +3319,14 @@
       <c r="B52" s="3">
         <v>-35</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -3252,14 +3335,14 @@
       <c r="B53" s="5">
         <v>20</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -3268,66 +3351,66 @@
       <c r="B54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
     </row>
     <row r="55" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3339,13 +3422,13 @@
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
       <c r="E59" s="46"/>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3357,11 +3440,11 @@
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
       <c r="E60" s="46"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="34"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3370,14 +3453,14 @@
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3386,14 +3469,14 @@
       <c r="B62" s="3">
         <v>300</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="40"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3402,14 +3485,14 @@
       <c r="B63" s="3">
         <v>-35</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -3418,126 +3501,126 @@
       <c r="B64" s="5">
         <v>40</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
     </row>
     <row r="65" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="40"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="67"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="61"/>
+      <c r="B68" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="33"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="67"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="40"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="61"/>
+      <c r="B69" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="33"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="40"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="32" t="s">
+      <c r="A70" s="60"/>
+      <c r="B70" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="33"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="40"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="33"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="43"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
@@ -3561,13 +3644,13 @@
       <c r="C74" s="45"/>
       <c r="D74" s="45"/>
       <c r="E74" s="46"/>
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3579,11 +3662,11 @@
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
       <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -3592,14 +3675,14 @@
       <c r="B76" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3608,14 +3691,14 @@
       <c r="B77" s="3">
         <v>3</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3624,14 +3707,14 @@
       <c r="B78" s="3">
         <v>0</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -3640,37 +3723,37 @@
       <c r="B79" s="5">
         <v>0</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
     </row>
     <row r="81" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
@@ -3683,27 +3766,27 @@
       <c r="G81" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="37"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="34"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="33"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="40"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -3715,13 +3798,13 @@
       <c r="C84" s="45"/>
       <c r="D84" s="45"/>
       <c r="E84" s="46"/>
-      <c r="F84" s="47" t="s">
+      <c r="F84" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -3733,11 +3816,11 @@
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3746,14 +3829,14 @@
       <c r="B86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3762,14 +3845,14 @@
       <c r="B87" s="3">
         <v>120</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -3778,14 +3861,14 @@
       <c r="B88" s="3">
         <v>-35</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -3794,14 +3877,14 @@
       <c r="B89" s="5">
         <v>60</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -3810,37 +3893,37 @@
       <c r="B90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
     </row>
     <row r="91" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
@@ -3853,27 +3936,27 @@
       <c r="G92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="35"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="37"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="34"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="33"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="43"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="40"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -3885,13 +3968,13 @@
       <c r="C95" s="45"/>
       <c r="D95" s="45"/>
       <c r="E95" s="46"/>
-      <c r="F95" s="47" t="s">
+      <c r="F95" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -3903,11 +3986,11 @@
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -3916,14 +3999,14 @@
       <c r="B97" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -3932,14 +4015,14 @@
       <c r="B98" s="3">
         <v>75</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -3948,14 +4031,14 @@
       <c r="B99" s="3">
         <v>-25</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -3964,37 +4047,37 @@
       <c r="B100" s="5">
         <v>40</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="33"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="7" t="s">
         <v>10</v>
       </c>
@@ -4007,45 +4090,45 @@
       <c r="G102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="35"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="37"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="34"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="33"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="40"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="37"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C104" s="33"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="43"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="40"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -4057,13 +4140,13 @@
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="46"/>
-      <c r="F106" s="47" t="s">
+      <c r="F106" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="47"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -4075,11 +4158,11 @@
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="46"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4088,14 +4171,14 @@
       <c r="B108" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4104,14 +4187,14 @@
       <c r="B109" s="3">
         <v>200</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4120,14 +4203,14 @@
       <c r="B110" s="3">
         <v>-50</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="47"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4136,37 +4219,37 @@
       <c r="B111" s="5">
         <v>40</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="47"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="48" t="s">
+      <c r="B112" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="33"/>
+      <c r="C113" s="43"/>
       <c r="D113" s="7" t="s">
         <v>10</v>
       </c>
@@ -4179,77 +4262,77 @@
       <c r="G113" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="35"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="34"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="33"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="40"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="37"/>
     </row>
     <row r="115" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="33"/>
+      <c r="C115" s="43"/>
       <c r="D115" s="13" t="s">
         <v>103</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="40"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="37"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="32" t="s">
+      <c r="A116" s="61"/>
+      <c r="B116" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="33"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="13" t="s">
         <v>104</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="40"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="37"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="32" t="s">
+      <c r="A117" s="60"/>
+      <c r="B117" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="33"/>
+      <c r="C117" s="43"/>
       <c r="D117" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="43"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="40"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -4261,13 +4344,13 @@
       <c r="C119" s="45"/>
       <c r="D119" s="45"/>
       <c r="E119" s="46"/>
-      <c r="F119" s="47" t="s">
+      <c r="F119" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -4279,11 +4362,11 @@
       <c r="C120" s="45"/>
       <c r="D120" s="45"/>
       <c r="E120" s="46"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="47"/>
-      <c r="I120" s="47"/>
-      <c r="J120" s="47"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -4292,14 +4375,14 @@
       <c r="B121" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="49"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="49"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -4308,14 +4391,14 @@
       <c r="B122" s="3">
         <v>400</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
-      <c r="I122" s="47"/>
-      <c r="J122" s="47"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -4324,14 +4407,14 @@
       <c r="B123" s="3">
         <v>-60</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="47"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="49"/>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -4340,37 +4423,37 @@
       <c r="B124" s="5">
         <v>80</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="49"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="49"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="33"/>
+      <c r="C126" s="43"/>
       <c r="D126" s="7" t="s">
         <v>10</v>
       </c>
@@ -4383,45 +4466,45 @@
       <c r="G126" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="37"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="34"/>
     </row>
     <row r="127" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C127" s="33"/>
+      <c r="C127" s="43"/>
       <c r="D127" s="13" t="s">
         <v>112</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="40"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="37"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C128" s="33"/>
+      <c r="C128" s="43"/>
       <c r="D128" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="43"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="40"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -4433,13 +4516,13 @@
       <c r="C130" s="45"/>
       <c r="D130" s="45"/>
       <c r="E130" s="46"/>
-      <c r="F130" s="47" t="s">
+      <c r="F130" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
-      <c r="J130" s="47"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="49"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -4451,11 +4534,11 @@
       <c r="C131" s="45"/>
       <c r="D131" s="45"/>
       <c r="E131" s="46"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="47"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="49"/>
+      <c r="I131" s="49"/>
+      <c r="J131" s="49"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4464,14 +4547,14 @@
       <c r="B132" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="47"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="49"/>
+      <c r="I132" s="49"/>
+      <c r="J132" s="49"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -4480,14 +4563,14 @@
       <c r="B133" s="3">
         <v>100</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47"/>
-      <c r="J133" s="47"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="49"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="49"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -4496,14 +4579,14 @@
       <c r="B134" s="3">
         <v>-35</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="40"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="49"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -4512,14 +4595,14 @@
       <c r="B135" s="5">
         <v>20</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="47"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="49"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -4528,37 +4611,37 @@
       <c r="B136" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="41"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="49"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="49"/>
     </row>
     <row r="138" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C138" s="33"/>
+      <c r="C138" s="43"/>
       <c r="D138" s="7" t="s">
         <v>10</v>
       </c>
@@ -4571,43 +4654,43 @@
       <c r="G138" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="35"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="37"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="34"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="33"/>
+      <c r="C139" s="43"/>
       <c r="D139" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="40"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="37"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
-      <c r="B140" s="32" t="s">
+      <c r="B140" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C140" s="33"/>
+      <c r="C140" s="43"/>
       <c r="D140" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="43"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="40"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -4619,13 +4702,13 @@
       <c r="C142" s="45"/>
       <c r="D142" s="45"/>
       <c r="E142" s="46"/>
-      <c r="F142" s="47" t="s">
+      <c r="F142" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="49"/>
+      <c r="I142" s="49"/>
+      <c r="J142" s="49"/>
     </row>
     <row r="143" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -4637,11 +4720,11 @@
       <c r="C143" s="45"/>
       <c r="D143" s="45"/>
       <c r="E143" s="46"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
-      <c r="I143" s="47"/>
-      <c r="J143" s="47"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
+      <c r="I143" s="49"/>
+      <c r="J143" s="49"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4650,14 +4733,14 @@
       <c r="B144" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
-      <c r="I144" s="47"/>
-      <c r="J144" s="47"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="49"/>
+      <c r="J144" s="49"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -4666,14 +4749,14 @@
       <c r="B145" s="3">
         <v>300</v>
       </c>
-      <c r="C145" s="38"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47"/>
-      <c r="I145" s="47"/>
-      <c r="J145" s="47"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="49"/>
+      <c r="I145" s="49"/>
+      <c r="J145" s="49"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -4682,14 +4765,14 @@
       <c r="B146" s="3">
         <v>-80</v>
       </c>
-      <c r="C146" s="38"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="47"/>
-      <c r="I146" s="47"/>
-      <c r="J146" s="47"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="49"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="49"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -4698,37 +4781,37 @@
       <c r="B147" s="5">
         <v>200</v>
       </c>
-      <c r="C147" s="38"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="40"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="47"/>
-      <c r="J147" s="47"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="49"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C148" s="49"/>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="47"/>
-      <c r="I148" s="47"/>
-      <c r="J148" s="47"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C149" s="33"/>
+      <c r="C149" s="43"/>
       <c r="D149" s="7" t="s">
         <v>10</v>
       </c>
@@ -4741,57 +4824,57 @@
       <c r="G149" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="35"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="37"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="33"/>
+      <c r="C150" s="43"/>
       <c r="D150" s="13" t="s">
         <v>125</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="39"/>
-      <c r="J150" s="40"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="61"/>
-      <c r="B151" s="32" t="s">
+      <c r="A151" s="60"/>
+      <c r="B151" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C151" s="33"/>
+      <c r="C151" s="43"/>
       <c r="D151" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="43"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="40"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="33"/>
+      <c r="B152" s="42"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="43"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
@@ -4815,13 +4898,13 @@
       <c r="C155" s="45"/>
       <c r="D155" s="45"/>
       <c r="E155" s="46"/>
-      <c r="F155" s="47" t="s">
+      <c r="F155" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
-      <c r="J155" s="47"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="49"/>
+      <c r="I155" s="49"/>
+      <c r="J155" s="49"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -4833,11 +4916,11 @@
       <c r="C156" s="45"/>
       <c r="D156" s="45"/>
       <c r="E156" s="46"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="47"/>
+      <c r="F156" s="49"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="49"/>
+      <c r="I156" s="49"/>
+      <c r="J156" s="49"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -4846,14 +4929,14 @@
       <c r="B157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="47"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="47"/>
-      <c r="J157" s="47"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="49"/>
+      <c r="G157" s="49"/>
+      <c r="H157" s="49"/>
+      <c r="I157" s="49"/>
+      <c r="J157" s="49"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -4862,14 +4945,14 @@
       <c r="B158" s="3">
         <v>400</v>
       </c>
-      <c r="C158" s="38"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="40"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
-      <c r="I158" s="47"/>
-      <c r="J158" s="47"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+      <c r="I158" s="49"/>
+      <c r="J158" s="49"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -4878,14 +4961,14 @@
       <c r="B159" s="3">
         <v>-50</v>
       </c>
-      <c r="C159" s="38"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="40"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="47"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="49"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="49"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
@@ -4894,37 +4977,37 @@
       <c r="B160" s="5">
         <v>80</v>
       </c>
-      <c r="C160" s="38"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="40"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
-      <c r="I160" s="47"/>
-      <c r="J160" s="47"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="49"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
+      <c r="I160" s="49"/>
+      <c r="J160" s="49"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B161" s="48" t="s">
+      <c r="B161" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C161" s="49"/>
-      <c r="D161" s="49"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="47"/>
-      <c r="I161" s="47"/>
-      <c r="J161" s="47"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="49"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="49"/>
+      <c r="I161" s="49"/>
+      <c r="J161" s="49"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="33"/>
+      <c r="C162" s="43"/>
       <c r="D162" s="7" t="s">
         <v>10</v>
       </c>
@@ -4937,127 +5020,127 @@
       <c r="G162" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="35"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="37"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="34"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="33"/>
+      <c r="C163" s="43"/>
       <c r="D163" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="39"/>
-      <c r="J163" s="40"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="37"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C164" s="33"/>
+      <c r="C164" s="43"/>
       <c r="D164" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="38"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="40"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="37"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C165" s="33"/>
+      <c r="C165" s="43"/>
       <c r="D165" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="39"/>
-      <c r="J165" s="40"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="37"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="60"/>
-      <c r="B166" s="32" t="s">
+      <c r="A166" s="61"/>
+      <c r="B166" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="33"/>
+      <c r="C166" s="43"/>
       <c r="D166" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="39"/>
-      <c r="J166" s="40"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="37"/>
     </row>
     <row r="167" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="60"/>
-      <c r="B167" s="32" t="s">
+      <c r="A167" s="61"/>
+      <c r="B167" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="33"/>
+      <c r="C167" s="43"/>
       <c r="D167" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="38"/>
-      <c r="I167" s="39"/>
-      <c r="J167" s="40"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="37"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="61"/>
-      <c r="B168" s="32" t="s">
+      <c r="A168" s="60"/>
+      <c r="B168" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C168" s="33"/>
+      <c r="C168" s="43"/>
       <c r="D168" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="38"/>
-      <c r="I168" s="39"/>
-      <c r="J168" s="40"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="37"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="33"/>
+      <c r="C169" s="43"/>
       <c r="D169" s="13" t="s">
         <v>142</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
-      <c r="H169" s="41"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="43"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="39"/>
+      <c r="J169" s="40"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -5069,13 +5152,13 @@
       <c r="C171" s="45"/>
       <c r="D171" s="45"/>
       <c r="E171" s="46"/>
-      <c r="F171" s="47" t="s">
+      <c r="F171" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47"/>
-      <c r="I171" s="47"/>
-      <c r="J171" s="47"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
+      <c r="I171" s="49"/>
+      <c r="J171" s="49"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -5087,11 +5170,11 @@
       <c r="C172" s="45"/>
       <c r="D172" s="45"/>
       <c r="E172" s="46"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="47"/>
-      <c r="I172" s="47"/>
-      <c r="J172" s="47"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="49"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -5100,14 +5183,14 @@
       <c r="B173" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="47"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="47"/>
-      <c r="I173" s="47"/>
-      <c r="J173" s="47"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="49"/>
+      <c r="J173" s="49"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -5116,14 +5199,14 @@
       <c r="B174" s="3">
         <v>30</v>
       </c>
-      <c r="C174" s="38"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="47"/>
-      <c r="G174" s="47"/>
-      <c r="H174" s="47"/>
-      <c r="I174" s="47"/>
-      <c r="J174" s="47"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
+      <c r="I174" s="49"/>
+      <c r="J174" s="49"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -5132,14 +5215,14 @@
       <c r="B175" s="3">
         <v>-35</v>
       </c>
-      <c r="C175" s="38"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="47"/>
-      <c r="I175" s="47"/>
-      <c r="J175" s="47"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="49"/>
+      <c r="G175" s="49"/>
+      <c r="H175" s="49"/>
+      <c r="I175" s="49"/>
+      <c r="J175" s="49"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
@@ -5148,37 +5231,37 @@
       <c r="B176" s="5">
         <v>20</v>
       </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="47"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="47"/>
-      <c r="I176" s="47"/>
-      <c r="J176" s="47"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="49"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="49"/>
+      <c r="I176" s="49"/>
+      <c r="J176" s="49"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="48" t="s">
+      <c r="B177" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C177" s="49"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
-      <c r="F177" s="47"/>
-      <c r="G177" s="47"/>
-      <c r="H177" s="47"/>
-      <c r="I177" s="47"/>
-      <c r="J177" s="47"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="49"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="49"/>
+      <c r="I177" s="49"/>
+      <c r="J177" s="49"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="33"/>
+      <c r="C178" s="43"/>
       <c r="D178" s="7" t="s">
         <v>10</v>
       </c>
@@ -5191,75 +5274,75 @@
       <c r="G178" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H178" s="35"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="37"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="34"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B179" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="C179" s="33"/>
+      <c r="C179" s="43"/>
       <c r="D179" s="13" t="s">
         <v>145</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="38"/>
-      <c r="I179" s="39"/>
-      <c r="J179" s="40"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="37"/>
     </row>
     <row r="180" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="60"/>
-      <c r="B180" s="32" t="s">
+      <c r="A180" s="61"/>
+      <c r="B180" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C180" s="33"/>
+      <c r="C180" s="43"/>
       <c r="D180" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
-      <c r="H180" s="38"/>
-      <c r="I180" s="39"/>
-      <c r="J180" s="40"/>
+      <c r="H180" s="35"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="37"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="60"/>
-      <c r="B181" s="32" t="s">
+      <c r="A181" s="61"/>
+      <c r="B181" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C181" s="33"/>
+      <c r="C181" s="43"/>
       <c r="D181" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
-      <c r="H181" s="38"/>
-      <c r="I181" s="39"/>
-      <c r="J181" s="40"/>
+      <c r="H181" s="35"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="37"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="61"/>
-      <c r="B182" s="32" t="s">
+      <c r="A182" s="60"/>
+      <c r="B182" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C182" s="33"/>
+      <c r="C182" s="43"/>
       <c r="D182" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
-      <c r="H182" s="41"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="43"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="39"/>
+      <c r="J182" s="40"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -5271,13 +5354,13 @@
       <c r="C184" s="45"/>
       <c r="D184" s="45"/>
       <c r="E184" s="46"/>
-      <c r="F184" s="47" t="s">
+      <c r="F184" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G184" s="47"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="47"/>
-      <c r="J184" s="47"/>
+      <c r="G184" s="49"/>
+      <c r="H184" s="49"/>
+      <c r="I184" s="49"/>
+      <c r="J184" s="49"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -5289,11 +5372,11 @@
       <c r="C185" s="45"/>
       <c r="D185" s="45"/>
       <c r="E185" s="46"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="47"/>
-      <c r="I185" s="47"/>
-      <c r="J185" s="47"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="49"/>
+      <c r="J185" s="49"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -5302,14 +5385,14 @@
       <c r="B186" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="47"/>
-      <c r="G186" s="47"/>
-      <c r="H186" s="47"/>
-      <c r="I186" s="47"/>
-      <c r="J186" s="47"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
+      <c r="J186" s="49"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -5318,14 +5401,14 @@
       <c r="B187" s="3">
         <v>250</v>
       </c>
-      <c r="C187" s="38"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="40"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="47"/>
-      <c r="H187" s="47"/>
-      <c r="I187" s="47"/>
-      <c r="J187" s="47"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="37"/>
+      <c r="F187" s="49"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
+      <c r="I187" s="49"/>
+      <c r="J187" s="49"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -5334,14 +5417,14 @@
       <c r="B188" s="3">
         <v>-40</v>
       </c>
-      <c r="C188" s="38"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="40"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="47"/>
-      <c r="H188" s="47"/>
-      <c r="I188" s="47"/>
-      <c r="J188" s="47"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="49"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
+      <c r="I188" s="49"/>
+      <c r="J188" s="49"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -5350,37 +5433,37 @@
       <c r="B189" s="5">
         <v>40</v>
       </c>
-      <c r="C189" s="38"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="47"/>
-      <c r="H189" s="47"/>
-      <c r="I189" s="47"/>
-      <c r="J189" s="47"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="49"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="49"/>
+      <c r="J189" s="49"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="48" t="s">
+      <c r="B190" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C190" s="49"/>
-      <c r="D190" s="49"/>
-      <c r="E190" s="49"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="47"/>
-      <c r="H190" s="47"/>
-      <c r="I190" s="47"/>
-      <c r="J190" s="47"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="49"/>
+      <c r="H190" s="49"/>
+      <c r="I190" s="49"/>
+      <c r="J190" s="49"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="33"/>
+      <c r="C191" s="43"/>
       <c r="D191" s="7" t="s">
         <v>10</v>
       </c>
@@ -5393,109 +5476,109 @@
       <c r="G191" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H191" s="35"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="37"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="33"/>
+      <c r="J191" s="34"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="33"/>
+      <c r="C192" s="43"/>
       <c r="D192" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
-      <c r="H192" s="38"/>
-      <c r="I192" s="39"/>
-      <c r="J192" s="40"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="37"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="69" t="s">
+      <c r="B193" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C193" s="70"/>
+      <c r="C193" s="63"/>
       <c r="D193" s="13" t="s">
         <v>157</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="38"/>
-      <c r="I193" s="39"/>
-      <c r="J193" s="40"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="37"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="60"/>
-      <c r="B194" s="69" t="s">
+      <c r="A194" s="61"/>
+      <c r="B194" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="C194" s="70"/>
+      <c r="C194" s="63"/>
       <c r="D194" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
-      <c r="H194" s="38"/>
-      <c r="I194" s="39"/>
-      <c r="J194" s="40"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="37"/>
     </row>
     <row r="195" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="60"/>
-      <c r="B195" s="32" t="s">
+      <c r="A195" s="61"/>
+      <c r="B195" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C195" s="33"/>
+      <c r="C195" s="43"/>
       <c r="D195" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="38"/>
-      <c r="I195" s="39"/>
-      <c r="J195" s="40"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="37"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="60"/>
-      <c r="B196" s="32" t="s">
+      <c r="A196" s="61"/>
+      <c r="B196" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C196" s="33"/>
+      <c r="C196" s="43"/>
       <c r="D196" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="38"/>
-      <c r="I196" s="39"/>
-      <c r="J196" s="40"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="37"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="61"/>
-      <c r="B197" s="32" t="s">
+      <c r="A197" s="60"/>
+      <c r="B197" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C197" s="33"/>
+      <c r="C197" s="43"/>
       <c r="D197" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
-      <c r="H197" s="41"/>
-      <c r="I197" s="42"/>
-      <c r="J197" s="43"/>
+      <c r="H197" s="38"/>
+      <c r="I197" s="39"/>
+      <c r="J197" s="40"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -5507,13 +5590,13 @@
       <c r="C199" s="45"/>
       <c r="D199" s="45"/>
       <c r="E199" s="46"/>
-      <c r="F199" s="47" t="s">
+      <c r="F199" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G199" s="47"/>
-      <c r="H199" s="47"/>
-      <c r="I199" s="47"/>
-      <c r="J199" s="47"/>
+      <c r="G199" s="49"/>
+      <c r="H199" s="49"/>
+      <c r="I199" s="49"/>
+      <c r="J199" s="49"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -5525,11 +5608,11 @@
       <c r="C200" s="45"/>
       <c r="D200" s="45"/>
       <c r="E200" s="46"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="47"/>
-      <c r="I200" s="47"/>
-      <c r="J200" s="47"/>
+      <c r="F200" s="49"/>
+      <c r="G200" s="49"/>
+      <c r="H200" s="49"/>
+      <c r="I200" s="49"/>
+      <c r="J200" s="49"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -5538,14 +5621,14 @@
       <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="35"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="47"/>
-      <c r="H201" s="47"/>
-      <c r="I201" s="47"/>
-      <c r="J201" s="47"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
+      <c r="H201" s="49"/>
+      <c r="I201" s="49"/>
+      <c r="J201" s="49"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -5554,14 +5637,14 @@
       <c r="B202" s="3">
         <v>25</v>
       </c>
-      <c r="C202" s="38"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="47"/>
-      <c r="I202" s="47"/>
-      <c r="J202" s="47"/>
+      <c r="C202" s="35"/>
+      <c r="D202" s="36"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="49"/>
+      <c r="H202" s="49"/>
+      <c r="I202" s="49"/>
+      <c r="J202" s="49"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -5570,14 +5653,14 @@
       <c r="B203" s="3">
         <v>-35</v>
       </c>
-      <c r="C203" s="38"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="47"/>
-      <c r="G203" s="47"/>
-      <c r="H203" s="47"/>
-      <c r="I203" s="47"/>
-      <c r="J203" s="47"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="49"/>
+      <c r="H203" s="49"/>
+      <c r="I203" s="49"/>
+      <c r="J203" s="49"/>
     </row>
     <row r="204" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -5586,37 +5669,37 @@
       <c r="B204" s="5">
         <v>10</v>
       </c>
-      <c r="C204" s="38"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="47"/>
-      <c r="G204" s="47"/>
-      <c r="H204" s="47"/>
-      <c r="I204" s="47"/>
-      <c r="J204" s="47"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="37"/>
+      <c r="F204" s="49"/>
+      <c r="G204" s="49"/>
+      <c r="H204" s="49"/>
+      <c r="I204" s="49"/>
+      <c r="J204" s="49"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C205" s="49"/>
-      <c r="D205" s="49"/>
-      <c r="E205" s="49"/>
-      <c r="F205" s="47"/>
-      <c r="G205" s="47"/>
-      <c r="H205" s="47"/>
-      <c r="I205" s="47"/>
-      <c r="J205" s="47"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="49"/>
+      <c r="H205" s="49"/>
+      <c r="I205" s="49"/>
+      <c r="J205" s="49"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C206" s="33"/>
+      <c r="C206" s="43"/>
       <c r="D206" s="7" t="s">
         <v>10</v>
       </c>
@@ -5629,43 +5712,43 @@
       <c r="G206" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H206" s="35"/>
-      <c r="I206" s="36"/>
-      <c r="J206" s="37"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="33"/>
+      <c r="J206" s="34"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B207" s="32" t="s">
+      <c r="B207" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C207" s="33"/>
+      <c r="C207" s="43"/>
       <c r="D207" s="10" t="s">
         <v>165</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
-      <c r="H207" s="38"/>
-      <c r="I207" s="39"/>
-      <c r="J207" s="40"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="37"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="61"/>
-      <c r="B208" s="32" t="s">
+      <c r="A208" s="60"/>
+      <c r="B208" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C208" s="33"/>
+      <c r="C208" s="43"/>
       <c r="D208" s="10" t="s">
         <v>167</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
-      <c r="H208" s="41"/>
-      <c r="I208" s="42"/>
-      <c r="J208" s="43"/>
+      <c r="H208" s="38"/>
+      <c r="I208" s="39"/>
+      <c r="J208" s="40"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
@@ -5677,13 +5760,13 @@
       <c r="C210" s="45"/>
       <c r="D210" s="45"/>
       <c r="E210" s="46"/>
-      <c r="F210" s="47" t="s">
+      <c r="F210" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G210" s="47"/>
-      <c r="H210" s="47"/>
-      <c r="I210" s="47"/>
-      <c r="J210" s="47"/>
+      <c r="G210" s="49"/>
+      <c r="H210" s="49"/>
+      <c r="I210" s="49"/>
+      <c r="J210" s="49"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -5695,11 +5778,11 @@
       <c r="C211" s="45"/>
       <c r="D211" s="45"/>
       <c r="E211" s="46"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="47"/>
-      <c r="H211" s="47"/>
-      <c r="I211" s="47"/>
-      <c r="J211" s="47"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="49"/>
+      <c r="H211" s="49"/>
+      <c r="I211" s="49"/>
+      <c r="J211" s="49"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -5708,14 +5791,14 @@
       <c r="B212" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C212" s="35"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="37"/>
-      <c r="F212" s="47"/>
-      <c r="G212" s="47"/>
-      <c r="H212" s="47"/>
-      <c r="I212" s="47"/>
-      <c r="J212" s="47"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="49"/>
+      <c r="G212" s="49"/>
+      <c r="H212" s="49"/>
+      <c r="I212" s="49"/>
+      <c r="J212" s="49"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -5724,37 +5807,37 @@
       <c r="B213" s="3">
         <v>4000</v>
       </c>
-      <c r="C213" s="38"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="40"/>
-      <c r="F213" s="47"/>
-      <c r="G213" s="47"/>
-      <c r="H213" s="47"/>
-      <c r="I213" s="47"/>
-      <c r="J213" s="47"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="36"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="49"/>
+      <c r="G213" s="49"/>
+      <c r="H213" s="49"/>
+      <c r="I213" s="49"/>
+      <c r="J213" s="49"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="48" t="s">
+      <c r="B214" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C214" s="49"/>
-      <c r="D214" s="49"/>
-      <c r="E214" s="49"/>
-      <c r="F214" s="47"/>
-      <c r="G214" s="47"/>
-      <c r="H214" s="47"/>
-      <c r="I214" s="47"/>
-      <c r="J214" s="47"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="49"/>
+      <c r="G214" s="49"/>
+      <c r="H214" s="49"/>
+      <c r="I214" s="49"/>
+      <c r="J214" s="49"/>
     </row>
     <row r="215" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
-      <c r="B215" s="32" t="s">
+      <c r="B215" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C215" s="33"/>
+      <c r="C215" s="43"/>
       <c r="D215" s="7" t="s">
         <v>10</v>
       </c>
@@ -5767,45 +5850,45 @@
       <c r="G215" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H215" s="35"/>
-      <c r="I215" s="36"/>
-      <c r="J215" s="37"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="33"/>
+      <c r="J215" s="34"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C216" s="33"/>
+      <c r="C216" s="43"/>
       <c r="D216" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
-      <c r="H216" s="38"/>
-      <c r="I216" s="39"/>
-      <c r="J216" s="40"/>
+      <c r="H216" s="35"/>
+      <c r="I216" s="36"/>
+      <c r="J216" s="37"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C217" s="33"/>
+      <c r="C217" s="43"/>
       <c r="D217" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="41"/>
-      <c r="I217" s="42"/>
-      <c r="J217" s="43"/>
+      <c r="H217" s="38"/>
+      <c r="I217" s="39"/>
+      <c r="J217" s="40"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -5817,13 +5900,13 @@
       <c r="C219" s="45"/>
       <c r="D219" s="45"/>
       <c r="E219" s="46"/>
-      <c r="F219" s="47" t="s">
+      <c r="F219" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G219" s="47"/>
-      <c r="H219" s="47"/>
-      <c r="I219" s="47"/>
-      <c r="J219" s="47"/>
+      <c r="G219" s="49"/>
+      <c r="H219" s="49"/>
+      <c r="I219" s="49"/>
+      <c r="J219" s="49"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -5835,11 +5918,11 @@
       <c r="C220" s="45"/>
       <c r="D220" s="45"/>
       <c r="E220" s="46"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="47"/>
-      <c r="H220" s="47"/>
-      <c r="I220" s="47"/>
-      <c r="J220" s="47"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="49"/>
+      <c r="J220" s="49"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -5848,14 +5931,14 @@
       <c r="B221" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C221" s="35"/>
-      <c r="D221" s="36"/>
-      <c r="E221" s="37"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-      <c r="H221" s="47"/>
-      <c r="I221" s="47"/>
-      <c r="J221" s="47"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="49"/>
+      <c r="G221" s="49"/>
+      <c r="H221" s="49"/>
+      <c r="I221" s="49"/>
+      <c r="J221" s="49"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -5864,14 +5947,14 @@
       <c r="B222" s="3">
         <v>500</v>
       </c>
-      <c r="C222" s="38"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="40"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="47"/>
-      <c r="H222" s="47"/>
-      <c r="I222" s="47"/>
-      <c r="J222" s="47"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="36"/>
+      <c r="E222" s="37"/>
+      <c r="F222" s="49"/>
+      <c r="G222" s="49"/>
+      <c r="H222" s="49"/>
+      <c r="I222" s="49"/>
+      <c r="J222" s="49"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -5880,14 +5963,14 @@
       <c r="B223" s="3">
         <v>-60</v>
       </c>
-      <c r="C223" s="38"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="47"/>
-      <c r="G223" s="47"/>
-      <c r="H223" s="47"/>
-      <c r="I223" s="47"/>
-      <c r="J223" s="47"/>
+      <c r="C223" s="35"/>
+      <c r="D223" s="36"/>
+      <c r="E223" s="37"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="49"/>
+      <c r="H223" s="49"/>
+      <c r="I223" s="49"/>
+      <c r="J223" s="49"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
@@ -5896,37 +5979,37 @@
       <c r="B224" s="5">
         <v>200</v>
       </c>
-      <c r="C224" s="38"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="40"/>
-      <c r="F224" s="47"/>
-      <c r="G224" s="47"/>
-      <c r="H224" s="47"/>
-      <c r="I224" s="47"/>
-      <c r="J224" s="47"/>
+      <c r="C224" s="35"/>
+      <c r="D224" s="36"/>
+      <c r="E224" s="37"/>
+      <c r="F224" s="49"/>
+      <c r="G224" s="49"/>
+      <c r="H224" s="49"/>
+      <c r="I224" s="49"/>
+      <c r="J224" s="49"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="48" t="s">
+      <c r="B225" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C225" s="49"/>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="47"/>
-      <c r="H225" s="47"/>
-      <c r="I225" s="47"/>
-      <c r="J225" s="47"/>
+      <c r="C225" s="48"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="49"/>
+      <c r="G225" s="49"/>
+      <c r="H225" s="49"/>
+      <c r="I225" s="49"/>
+      <c r="J225" s="49"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
-      <c r="B226" s="32" t="s">
+      <c r="B226" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C226" s="33"/>
+      <c r="C226" s="43"/>
       <c r="D226" s="7" t="s">
         <v>10</v>
       </c>
@@ -5939,61 +6022,61 @@
       <c r="G226" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="35"/>
-      <c r="I226" s="36"/>
-      <c r="J226" s="37"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="33"/>
+      <c r="J226" s="34"/>
     </row>
     <row r="227" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B227" s="32" t="s">
+      <c r="B227" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C227" s="33"/>
+      <c r="C227" s="43"/>
       <c r="D227" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
-      <c r="H227" s="38"/>
-      <c r="I227" s="39"/>
-      <c r="J227" s="40"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="36"/>
+      <c r="J227" s="37"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B228" s="32" t="s">
+      <c r="B228" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="C228" s="33"/>
+      <c r="C228" s="43"/>
       <c r="D228" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="38"/>
-      <c r="I228" s="39"/>
-      <c r="J228" s="40"/>
+      <c r="H228" s="35"/>
+      <c r="I228" s="36"/>
+      <c r="J228" s="37"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="61"/>
-      <c r="B229" s="32" t="s">
+      <c r="A229" s="60"/>
+      <c r="B229" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C229" s="33"/>
+      <c r="C229" s="43"/>
       <c r="D229" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="41"/>
-      <c r="I229" s="42"/>
-      <c r="J229" s="43"/>
+      <c r="H229" s="38"/>
+      <c r="I229" s="39"/>
+      <c r="J229" s="40"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
@@ -6005,13 +6088,13 @@
       <c r="C231" s="45"/>
       <c r="D231" s="45"/>
       <c r="E231" s="46"/>
-      <c r="F231" s="47" t="s">
+      <c r="F231" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G231" s="47"/>
-      <c r="H231" s="47"/>
-      <c r="I231" s="47"/>
-      <c r="J231" s="47"/>
+      <c r="G231" s="49"/>
+      <c r="H231" s="49"/>
+      <c r="I231" s="49"/>
+      <c r="J231" s="49"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -6023,11 +6106,11 @@
       <c r="C232" s="45"/>
       <c r="D232" s="45"/>
       <c r="E232" s="46"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="47"/>
-      <c r="H232" s="47"/>
-      <c r="I232" s="47"/>
-      <c r="J232" s="47"/>
+      <c r="F232" s="49"/>
+      <c r="G232" s="49"/>
+      <c r="H232" s="49"/>
+      <c r="I232" s="49"/>
+      <c r="J232" s="49"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -6036,14 +6119,14 @@
       <c r="B233" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C233" s="35"/>
-      <c r="D233" s="36"/>
-      <c r="E233" s="37"/>
-      <c r="F233" s="47"/>
-      <c r="G233" s="47"/>
-      <c r="H233" s="47"/>
-      <c r="I233" s="47"/>
-      <c r="J233" s="47"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="34"/>
+      <c r="F233" s="49"/>
+      <c r="G233" s="49"/>
+      <c r="H233" s="49"/>
+      <c r="I233" s="49"/>
+      <c r="J233" s="49"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -6052,14 +6135,14 @@
       <c r="B234" s="3">
         <v>400</v>
       </c>
-      <c r="C234" s="38"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="47"/>
-      <c r="G234" s="47"/>
-      <c r="H234" s="47"/>
-      <c r="I234" s="47"/>
-      <c r="J234" s="47"/>
+      <c r="C234" s="35"/>
+      <c r="D234" s="36"/>
+      <c r="E234" s="37"/>
+      <c r="F234" s="49"/>
+      <c r="G234" s="49"/>
+      <c r="H234" s="49"/>
+      <c r="I234" s="49"/>
+      <c r="J234" s="49"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -6068,14 +6151,14 @@
       <c r="B235" s="3">
         <v>-60</v>
       </c>
-      <c r="C235" s="38"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="40"/>
-      <c r="F235" s="47"/>
-      <c r="G235" s="47"/>
-      <c r="H235" s="47"/>
-      <c r="I235" s="47"/>
-      <c r="J235" s="47"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="36"/>
+      <c r="E235" s="37"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="49"/>
+      <c r="H235" s="49"/>
+      <c r="I235" s="49"/>
+      <c r="J235" s="49"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
@@ -6084,37 +6167,37 @@
       <c r="B236" s="5">
         <v>80</v>
       </c>
-      <c r="C236" s="38"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="40"/>
-      <c r="F236" s="47"/>
-      <c r="G236" s="47"/>
-      <c r="H236" s="47"/>
-      <c r="I236" s="47"/>
-      <c r="J236" s="47"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="36"/>
+      <c r="E236" s="37"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="49"/>
+      <c r="H236" s="49"/>
+      <c r="I236" s="49"/>
+      <c r="J236" s="49"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="48" t="s">
+      <c r="B237" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C237" s="49"/>
-      <c r="D237" s="49"/>
-      <c r="E237" s="49"/>
-      <c r="F237" s="47"/>
-      <c r="G237" s="47"/>
-      <c r="H237" s="47"/>
-      <c r="I237" s="47"/>
-      <c r="J237" s="47"/>
+      <c r="C237" s="48"/>
+      <c r="D237" s="48"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="49"/>
+      <c r="H237" s="49"/>
+      <c r="I237" s="49"/>
+      <c r="J237" s="49"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
-      <c r="B238" s="32" t="s">
+      <c r="B238" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C238" s="33"/>
+      <c r="C238" s="43"/>
       <c r="D238" s="7" t="s">
         <v>10</v>
       </c>
@@ -6127,77 +6210,77 @@
       <c r="G238" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="35"/>
-      <c r="I238" s="36"/>
-      <c r="J238" s="37"/>
+      <c r="H238" s="32"/>
+      <c r="I238" s="33"/>
+      <c r="J238" s="34"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="32" t="s">
+      <c r="B239" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C239" s="33"/>
+      <c r="C239" s="43"/>
       <c r="D239" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
-      <c r="H239" s="38"/>
-      <c r="I239" s="39"/>
-      <c r="J239" s="40"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="36"/>
+      <c r="J239" s="37"/>
     </row>
     <row r="240" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="60" t="s">
+      <c r="A240" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B240" s="32" t="s">
+      <c r="B240" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C240" s="33"/>
+      <c r="C240" s="43"/>
       <c r="D240" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="38"/>
-      <c r="I240" s="39"/>
-      <c r="J240" s="40"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="36"/>
+      <c r="J240" s="37"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="60"/>
-      <c r="B241" s="32" t="s">
+      <c r="A241" s="61"/>
+      <c r="B241" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C241" s="33"/>
+      <c r="C241" s="43"/>
       <c r="D241" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="38"/>
-      <c r="I241" s="39"/>
-      <c r="J241" s="40"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="36"/>
+      <c r="J241" s="37"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="61"/>
-      <c r="B242" s="32" t="s">
+      <c r="A242" s="60"/>
+      <c r="B242" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C242" s="33"/>
+      <c r="C242" s="43"/>
       <c r="D242" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="41"/>
-      <c r="I242" s="42"/>
-      <c r="J242" s="43"/>
+      <c r="H242" s="38"/>
+      <c r="I242" s="39"/>
+      <c r="J242" s="40"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
@@ -6209,13 +6292,13 @@
       <c r="C244" s="45"/>
       <c r="D244" s="45"/>
       <c r="E244" s="46"/>
-      <c r="F244" s="47" t="s">
+      <c r="F244" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G244" s="47"/>
-      <c r="H244" s="47"/>
-      <c r="I244" s="47"/>
-      <c r="J244" s="47"/>
+      <c r="G244" s="49"/>
+      <c r="H244" s="49"/>
+      <c r="I244" s="49"/>
+      <c r="J244" s="49"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -6227,11 +6310,11 @@
       <c r="C245" s="45"/>
       <c r="D245" s="45"/>
       <c r="E245" s="46"/>
-      <c r="F245" s="47"/>
-      <c r="G245" s="47"/>
-      <c r="H245" s="47"/>
-      <c r="I245" s="47"/>
-      <c r="J245" s="47"/>
+      <c r="F245" s="49"/>
+      <c r="G245" s="49"/>
+      <c r="H245" s="49"/>
+      <c r="I245" s="49"/>
+      <c r="J245" s="49"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
@@ -6240,14 +6323,14 @@
       <c r="B246" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C246" s="35"/>
-      <c r="D246" s="36"/>
-      <c r="E246" s="37"/>
-      <c r="F246" s="47"/>
-      <c r="G246" s="47"/>
-      <c r="H246" s="47"/>
-      <c r="I246" s="47"/>
-      <c r="J246" s="47"/>
+      <c r="C246" s="32"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="34"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="49"/>
+      <c r="I246" s="49"/>
+      <c r="J246" s="49"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -6256,14 +6339,14 @@
       <c r="B247" s="3">
         <v>60</v>
       </c>
-      <c r="C247" s="38"/>
-      <c r="D247" s="39"/>
-      <c r="E247" s="40"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="47"/>
-      <c r="H247" s="47"/>
-      <c r="I247" s="47"/>
-      <c r="J247" s="47"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="36"/>
+      <c r="E247" s="37"/>
+      <c r="F247" s="49"/>
+      <c r="G247" s="49"/>
+      <c r="H247" s="49"/>
+      <c r="I247" s="49"/>
+      <c r="J247" s="49"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
@@ -6272,14 +6355,14 @@
       <c r="B248" s="3">
         <v>-25</v>
       </c>
-      <c r="C248" s="38"/>
-      <c r="D248" s="39"/>
-      <c r="E248" s="40"/>
-      <c r="F248" s="47"/>
-      <c r="G248" s="47"/>
-      <c r="H248" s="47"/>
-      <c r="I248" s="47"/>
-      <c r="J248" s="47"/>
+      <c r="C248" s="35"/>
+      <c r="D248" s="36"/>
+      <c r="E248" s="37"/>
+      <c r="F248" s="49"/>
+      <c r="G248" s="49"/>
+      <c r="H248" s="49"/>
+      <c r="I248" s="49"/>
+      <c r="J248" s="49"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
@@ -6288,37 +6371,37 @@
       <c r="B249" s="5">
         <v>10</v>
       </c>
-      <c r="C249" s="38"/>
-      <c r="D249" s="39"/>
-      <c r="E249" s="40"/>
-      <c r="F249" s="47"/>
-      <c r="G249" s="47"/>
-      <c r="H249" s="47"/>
-      <c r="I249" s="47"/>
-      <c r="J249" s="47"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="36"/>
+      <c r="E249" s="37"/>
+      <c r="F249" s="49"/>
+      <c r="G249" s="49"/>
+      <c r="H249" s="49"/>
+      <c r="I249" s="49"/>
+      <c r="J249" s="49"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="48" t="s">
+      <c r="B250" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C250" s="49"/>
-      <c r="D250" s="49"/>
-      <c r="E250" s="49"/>
-      <c r="F250" s="47"/>
-      <c r="G250" s="47"/>
-      <c r="H250" s="47"/>
-      <c r="I250" s="47"/>
-      <c r="J250" s="47"/>
+      <c r="C250" s="48"/>
+      <c r="D250" s="48"/>
+      <c r="E250" s="48"/>
+      <c r="F250" s="49"/>
+      <c r="G250" s="49"/>
+      <c r="H250" s="49"/>
+      <c r="I250" s="49"/>
+      <c r="J250" s="49"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
-      <c r="B251" s="32" t="s">
+      <c r="B251" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C251" s="33"/>
+      <c r="C251" s="43"/>
       <c r="D251" s="7" t="s">
         <v>10</v>
       </c>
@@ -6331,45 +6414,45 @@
       <c r="G251" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H251" s="35"/>
-      <c r="I251" s="36"/>
-      <c r="J251" s="37"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="33"/>
+      <c r="J251" s="34"/>
     </row>
     <row r="252" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B252" s="32" t="s">
+      <c r="B252" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C252" s="33"/>
+      <c r="C252" s="43"/>
       <c r="D252" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
-      <c r="H252" s="38"/>
-      <c r="I252" s="39"/>
-      <c r="J252" s="40"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="36"/>
+      <c r="J252" s="37"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B253" s="32" t="s">
+      <c r="B253" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C253" s="33"/>
+      <c r="C253" s="43"/>
       <c r="D253" s="13" t="s">
         <v>199</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
-      <c r="H253" s="41"/>
-      <c r="I253" s="42"/>
-      <c r="J253" s="43"/>
+      <c r="H253" s="38"/>
+      <c r="I253" s="39"/>
+      <c r="J253" s="40"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
@@ -6381,13 +6464,13 @@
       <c r="C255" s="45"/>
       <c r="D255" s="45"/>
       <c r="E255" s="46"/>
-      <c r="F255" s="47" t="s">
+      <c r="F255" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G255" s="47"/>
-      <c r="H255" s="47"/>
-      <c r="I255" s="47"/>
-      <c r="J255" s="47"/>
+      <c r="G255" s="49"/>
+      <c r="H255" s="49"/>
+      <c r="I255" s="49"/>
+      <c r="J255" s="49"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -6399,11 +6482,11 @@
       <c r="C256" s="45"/>
       <c r="D256" s="45"/>
       <c r="E256" s="46"/>
-      <c r="F256" s="47"/>
-      <c r="G256" s="47"/>
-      <c r="H256" s="47"/>
-      <c r="I256" s="47"/>
-      <c r="J256" s="47"/>
+      <c r="F256" s="49"/>
+      <c r="G256" s="49"/>
+      <c r="H256" s="49"/>
+      <c r="I256" s="49"/>
+      <c r="J256" s="49"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -6412,14 +6495,14 @@
       <c r="B257" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C257" s="35"/>
-      <c r="D257" s="36"/>
-      <c r="E257" s="37"/>
-      <c r="F257" s="47"/>
-      <c r="G257" s="47"/>
-      <c r="H257" s="47"/>
-      <c r="I257" s="47"/>
-      <c r="J257" s="47"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="34"/>
+      <c r="F257" s="49"/>
+      <c r="G257" s="49"/>
+      <c r="H257" s="49"/>
+      <c r="I257" s="49"/>
+      <c r="J257" s="49"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
@@ -6428,14 +6511,14 @@
       <c r="B258" s="3">
         <v>120</v>
       </c>
-      <c r="C258" s="38"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="47"/>
-      <c r="G258" s="47"/>
-      <c r="H258" s="47"/>
-      <c r="I258" s="47"/>
-      <c r="J258" s="47"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="36"/>
+      <c r="E258" s="37"/>
+      <c r="F258" s="49"/>
+      <c r="G258" s="49"/>
+      <c r="H258" s="49"/>
+      <c r="I258" s="49"/>
+      <c r="J258" s="49"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -6444,14 +6527,14 @@
       <c r="B259" s="3">
         <v>-35</v>
       </c>
-      <c r="C259" s="38"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="40"/>
-      <c r="F259" s="47"/>
-      <c r="G259" s="47"/>
-      <c r="H259" s="47"/>
-      <c r="I259" s="47"/>
-      <c r="J259" s="47"/>
+      <c r="C259" s="35"/>
+      <c r="D259" s="36"/>
+      <c r="E259" s="37"/>
+      <c r="F259" s="49"/>
+      <c r="G259" s="49"/>
+      <c r="H259" s="49"/>
+      <c r="I259" s="49"/>
+      <c r="J259" s="49"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
@@ -6460,14 +6543,14 @@
       <c r="B260" s="5">
         <v>20</v>
       </c>
-      <c r="C260" s="38"/>
-      <c r="D260" s="39"/>
-      <c r="E260" s="40"/>
-      <c r="F260" s="47"/>
-      <c r="G260" s="47"/>
-      <c r="H260" s="47"/>
-      <c r="I260" s="47"/>
-      <c r="J260" s="47"/>
+      <c r="C260" s="35"/>
+      <c r="D260" s="36"/>
+      <c r="E260" s="37"/>
+      <c r="F260" s="49"/>
+      <c r="G260" s="49"/>
+      <c r="H260" s="49"/>
+      <c r="I260" s="49"/>
+      <c r="J260" s="49"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
@@ -6476,37 +6559,37 @@
       <c r="B261" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C261" s="41"/>
-      <c r="D261" s="42"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="47"/>
-      <c r="G261" s="47"/>
-      <c r="H261" s="47"/>
-      <c r="I261" s="47"/>
-      <c r="J261" s="47"/>
+      <c r="C261" s="38"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="49"/>
+      <c r="G261" s="49"/>
+      <c r="H261" s="49"/>
+      <c r="I261" s="49"/>
+      <c r="J261" s="49"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="48" t="s">
+      <c r="B262" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="C262" s="49"/>
-      <c r="D262" s="49"/>
-      <c r="E262" s="49"/>
-      <c r="F262" s="47"/>
-      <c r="G262" s="47"/>
-      <c r="H262" s="47"/>
-      <c r="I262" s="47"/>
-      <c r="J262" s="47"/>
+      <c r="C262" s="48"/>
+      <c r="D262" s="48"/>
+      <c r="E262" s="48"/>
+      <c r="F262" s="49"/>
+      <c r="G262" s="49"/>
+      <c r="H262" s="49"/>
+      <c r="I262" s="49"/>
+      <c r="J262" s="49"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="33"/>
+      <c r="C263" s="43"/>
       <c r="D263" s="7" t="s">
         <v>10</v>
       </c>
@@ -6519,27 +6602,27 @@
       <c r="G263" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H263" s="35"/>
-      <c r="I263" s="36"/>
-      <c r="J263" s="37"/>
+      <c r="H263" s="32"/>
+      <c r="I263" s="33"/>
+      <c r="J263" s="34"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="B264" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C264" s="33"/>
+      <c r="C264" s="43"/>
       <c r="D264" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
-      <c r="H264" s="41"/>
-      <c r="I264" s="42"/>
-      <c r="J264" s="43"/>
+      <c r="H264" s="38"/>
+      <c r="I264" s="39"/>
+      <c r="J264" s="40"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
@@ -6551,13 +6634,13 @@
       <c r="C266" s="45"/>
       <c r="D266" s="45"/>
       <c r="E266" s="46"/>
-      <c r="F266" s="47" t="s">
+      <c r="F266" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G266" s="47"/>
-      <c r="H266" s="47"/>
-      <c r="I266" s="47"/>
-      <c r="J266" s="47"/>
+      <c r="G266" s="49"/>
+      <c r="H266" s="49"/>
+      <c r="I266" s="49"/>
+      <c r="J266" s="49"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
@@ -6569,11 +6652,11 @@
       <c r="C267" s="45"/>
       <c r="D267" s="45"/>
       <c r="E267" s="46"/>
-      <c r="F267" s="47"/>
-      <c r="G267" s="47"/>
-      <c r="H267" s="47"/>
-      <c r="I267" s="47"/>
-      <c r="J267" s="47"/>
+      <c r="F267" s="49"/>
+      <c r="G267" s="49"/>
+      <c r="H267" s="49"/>
+      <c r="I267" s="49"/>
+      <c r="J267" s="49"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -6582,14 +6665,14 @@
       <c r="B268" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C268" s="35"/>
-      <c r="D268" s="36"/>
-      <c r="E268" s="37"/>
-      <c r="F268" s="47"/>
-      <c r="G268" s="47"/>
-      <c r="H268" s="47"/>
-      <c r="I268" s="47"/>
-      <c r="J268" s="47"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="34"/>
+      <c r="F268" s="49"/>
+      <c r="G268" s="49"/>
+      <c r="H268" s="49"/>
+      <c r="I268" s="49"/>
+      <c r="J268" s="49"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
@@ -6598,37 +6681,37 @@
       <c r="B269" s="3">
         <v>2500</v>
       </c>
-      <c r="C269" s="38"/>
-      <c r="D269" s="39"/>
-      <c r="E269" s="40"/>
-      <c r="F269" s="47"/>
-      <c r="G269" s="47"/>
-      <c r="H269" s="47"/>
-      <c r="I269" s="47"/>
-      <c r="J269" s="47"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="36"/>
+      <c r="E269" s="37"/>
+      <c r="F269" s="49"/>
+      <c r="G269" s="49"/>
+      <c r="H269" s="49"/>
+      <c r="I269" s="49"/>
+      <c r="J269" s="49"/>
     </row>
     <row r="270" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B270" s="48" t="s">
+      <c r="B270" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C270" s="49"/>
-      <c r="D270" s="49"/>
-      <c r="E270" s="49"/>
-      <c r="F270" s="47"/>
-      <c r="G270" s="47"/>
-      <c r="H270" s="47"/>
-      <c r="I270" s="47"/>
-      <c r="J270" s="47"/>
+      <c r="C270" s="48"/>
+      <c r="D270" s="48"/>
+      <c r="E270" s="48"/>
+      <c r="F270" s="49"/>
+      <c r="G270" s="49"/>
+      <c r="H270" s="49"/>
+      <c r="I270" s="49"/>
+      <c r="J270" s="49"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C271" s="33"/>
+      <c r="C271" s="43"/>
       <c r="D271" s="7" t="s">
         <v>10</v>
       </c>
@@ -6641,106 +6724,253 @@
       <c r="G271" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H271" s="35"/>
-      <c r="I271" s="36"/>
-      <c r="J271" s="37"/>
+      <c r="H271" s="32"/>
+      <c r="I271" s="33"/>
+      <c r="J271" s="34"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="B272" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="C272" s="33"/>
+      <c r="C272" s="43"/>
       <c r="D272" s="10" t="s">
         <v>106</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
-      <c r="H272" s="38"/>
-      <c r="I272" s="39"/>
-      <c r="J272" s="40"/>
+      <c r="H272" s="35"/>
+      <c r="I272" s="36"/>
+      <c r="J272" s="37"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="61"/>
-      <c r="B273" s="32" t="s">
+      <c r="A273" s="60"/>
+      <c r="B273" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="33"/>
+      <c r="C273" s="43"/>
       <c r="D273" s="10" t="s">
         <v>215</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
-      <c r="H273" s="38"/>
-      <c r="I273" s="39"/>
-      <c r="J273" s="40"/>
+      <c r="H273" s="35"/>
+      <c r="I273" s="36"/>
+      <c r="J273" s="37"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B274" s="32" t="s">
+      <c r="B274" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="C274" s="33"/>
+      <c r="C274" s="43"/>
       <c r="D274" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
-      <c r="H274" s="41"/>
-      <c r="I274" s="42"/>
-      <c r="J274" s="43"/>
+      <c r="H274" s="38"/>
+      <c r="I274" s="39"/>
+      <c r="J274" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B266:E266"/>
-    <mergeCell ref="F266:J266"/>
-    <mergeCell ref="B267:E267"/>
-    <mergeCell ref="F267:J270"/>
-    <mergeCell ref="C268:E269"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="H271:J274"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="H263:J264"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="F255:J255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="F256:J262"/>
-    <mergeCell ref="C257:E261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="H251:J253"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="F244:J244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="F245:J250"/>
-    <mergeCell ref="C246:E249"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:J13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C3:E6"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J35"/>
+    <mergeCell ref="C28:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F38:J46"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C39:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F49:J57"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="C50:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F60:J70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:J80"/>
+    <mergeCell ref="C76:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H81:J82"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:J91"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="H92:J93"/>
+    <mergeCell ref="C86:E90"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:J101"/>
+    <mergeCell ref="C97:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H102:J104"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:J112"/>
+    <mergeCell ref="C108:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="H113:J117"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="F120:J125"/>
+    <mergeCell ref="C121:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H126:J128"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="F130:J130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="F131:J137"/>
+    <mergeCell ref="C132:E136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:J142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:J148"/>
+    <mergeCell ref="C144:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="H138:J140"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:J161"/>
+    <mergeCell ref="C157:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="H149:J151"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:J171"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:J177"/>
+    <mergeCell ref="C173:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H162:J169"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="B185:E185"/>
+    <mergeCell ref="F185:J190"/>
+    <mergeCell ref="C186:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="H178:J182"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="F199:J199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="F200:J205"/>
+    <mergeCell ref="C201:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="H191:J197"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="F211:J214"/>
+    <mergeCell ref="C212:E213"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="H206:J208"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="F219:J219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="F220:J225"/>
+    <mergeCell ref="C221:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="H215:J217"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
     <mergeCell ref="A150:A151"/>
     <mergeCell ref="A152:J152"/>
     <mergeCell ref="B165:C165"/>
@@ -6765,195 +6995,461 @@
     <mergeCell ref="B228:C228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:J219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="F220:J225"/>
-    <mergeCell ref="C221:E224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="H215:J217"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="F211:J214"/>
-    <mergeCell ref="C212:E213"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="H206:J208"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="F199:J199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="F200:J205"/>
-    <mergeCell ref="C201:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="H191:J197"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="F184:J184"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="F185:J190"/>
-    <mergeCell ref="C186:E189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="H178:J182"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:J171"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:J177"/>
-    <mergeCell ref="C173:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H162:J169"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:J161"/>
-    <mergeCell ref="C157:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="H149:J151"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:J142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:J148"/>
-    <mergeCell ref="C144:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="H138:J140"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H126:J128"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="F130:J130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="F131:J137"/>
-    <mergeCell ref="C132:E136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="F120:J125"/>
-    <mergeCell ref="C121:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H102:J104"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="F107:J112"/>
-    <mergeCell ref="C108:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="H113:J117"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:J101"/>
-    <mergeCell ref="C97:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:J91"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H92:J93"/>
-    <mergeCell ref="C86:E90"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:J80"/>
-    <mergeCell ref="C76:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="H81:J82"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F60:J70"/>
-    <mergeCell ref="E66:E70"/>
-    <mergeCell ref="F49:J57"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="C50:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J35"/>
-    <mergeCell ref="C28:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F38:J46"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="C39:E43"/>
-    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="H251:J253"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="F244:J244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="F245:J250"/>
+    <mergeCell ref="C246:E249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="H263:J264"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="F255:J255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="F256:J262"/>
+    <mergeCell ref="C257:E261"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="F266:J266"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="F267:J270"/>
+    <mergeCell ref="C268:E269"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="H271:J274"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="7" width="11.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:J13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C3:E6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F2:J22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/readmesrc/readme_sourcetables.xlsx
+++ b/readmesrc/readme_sourcetables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\GitHub\Keep\Keep\readmesrc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Dropbox\QUAKE\keep\readmesrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1092,6 +1092,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,15 +1128,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,14 +1137,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1176,32 +1176,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1659,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -1685,13 +1685,13 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1703,11 +1703,11 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="52"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1775,11 +1775,11 @@
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="58"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1791,143 +1791,143 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
@@ -1949,13 +1949,13 @@
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1965,179 +1965,179 @@
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="43"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="43"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="13"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -2152,18 +2152,18 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -2185,13 +2185,13 @@
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2201,102 +2201,102 @@
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
     </row>
     <row r="43" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
@@ -2309,89 +2309,89 @@
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="13"/>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
@@ -2407,6 +2407,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H44:J49"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C38:E42"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J43"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="C20:E24"/>
@@ -2423,36 +2453,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H44:J49"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="C38:E42"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2464,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
@@ -2484,19 +2484,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="56"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2508,11 +2508,11 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2521,14 +2521,14 @@
       <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2537,14 +2537,14 @@
       <c r="B4" s="3">
         <v>3000</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2553,14 +2553,14 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2569,142 +2569,142 @@
       <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="29">
         <v>1000</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="29">
         <v>1000</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="29">
         <v>1000</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="30">
         <v>1000</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
@@ -2725,16 +2725,16 @@
       <c r="B15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="49" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2743,14 +2743,14 @@
       <c r="B16" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2759,14 +2759,14 @@
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2775,14 +2775,14 @@
       <c r="B18" s="3">
         <v>30</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2791,14 +2791,14 @@
       <c r="B19" s="3">
         <v>-35</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2807,14 +2807,14 @@
       <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2823,68 +2823,68 @@
       <c r="B21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2905,16 +2905,16 @@
       <c r="B26" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="49" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2923,14 +2923,14 @@
       <c r="B27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2939,14 +2939,14 @@
       <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2955,14 +2955,14 @@
       <c r="B29" s="3">
         <v>60</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2971,14 +2971,14 @@
       <c r="B30" s="3">
         <v>-35</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2987,14 +2987,14 @@
       <c r="B31" s="5">
         <v>20</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3003,68 +3003,68 @@
       <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -3088,13 +3088,13 @@
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -3106,11 +3106,11 @@
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3119,14 +3119,14 @@
       <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3135,14 +3135,14 @@
       <c r="B40" s="3">
         <v>75</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3151,14 +3151,14 @@
       <c r="B41" s="3">
         <v>-35</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -3167,14 +3167,14 @@
       <c r="B42" s="5">
         <v>20</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -3183,68 +3183,68 @@
       <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="43"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="43"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -3256,13 +3256,13 @@
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="E48" s="46"/>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -3274,11 +3274,11 @@
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="46"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3287,14 +3287,14 @@
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3303,14 +3303,14 @@
       <c r="B51" s="3">
         <v>45</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3319,14 +3319,14 @@
       <c r="B52" s="3">
         <v>-35</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -3335,14 +3335,14 @@
       <c r="B53" s="5">
         <v>20</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -3351,66 +3351,66 @@
       <c r="B54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="43"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="43"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3422,13 +3422,13 @@
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
       <c r="E59" s="46"/>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3440,11 +3440,11 @@
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
       <c r="E60" s="46"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3453,14 +3453,14 @@
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
     </row>
     <row r="62" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3469,14 +3469,14 @@
       <c r="B62" s="3">
         <v>300</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3485,14 +3485,14 @@
       <c r="B63" s="3">
         <v>-35</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -3501,126 +3501,126 @@
       <c r="B64" s="5">
         <v>40</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="43"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="43"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="41" t="s">
+      <c r="A68" s="60"/>
+      <c r="B68" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="43"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="65"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="41" t="s">
+      <c r="A69" s="60"/>
+      <c r="B69" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="43"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="40"/>
     </row>
     <row r="70" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="41" t="s">
+      <c r="A70" s="61"/>
+      <c r="B70" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="43"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="66"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="40"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="43"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="33"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
@@ -3644,13 +3644,13 @@
       <c r="C74" s="45"/>
       <c r="D74" s="45"/>
       <c r="E74" s="46"/>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3662,11 +3662,11 @@
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
       <c r="E75" s="46"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -3675,14 +3675,14 @@
       <c r="B76" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3691,14 +3691,14 @@
       <c r="B77" s="3">
         <v>3</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3707,14 +3707,14 @@
       <c r="B78" s="3">
         <v>0</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -3723,37 +3723,37 @@
       <c r="B79" s="5">
         <v>0</v>
       </c>
-      <c r="C79" s="38"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
     </row>
     <row r="81" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="43"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
@@ -3766,27 +3766,27 @@
       <c r="G81" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="34"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="37"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="43"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -3798,13 +3798,13 @@
       <c r="C84" s="45"/>
       <c r="D84" s="45"/>
       <c r="E84" s="46"/>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -3816,11 +3816,11 @@
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3829,14 +3829,14 @@
       <c r="B86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3845,14 +3845,14 @@
       <c r="B87" s="3">
         <v>120</v>
       </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -3861,14 +3861,14 @@
       <c r="B88" s="3">
         <v>-35</v>
       </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -3877,14 +3877,14 @@
       <c r="B89" s="5">
         <v>60</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -3893,37 +3893,37 @@
       <c r="B90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="49"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
     </row>
     <row r="91" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="43"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
@@ -3936,27 +3936,27 @@
       <c r="G92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="32"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="34"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="43"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="40"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="43"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -3968,13 +3968,13 @@
       <c r="C95" s="45"/>
       <c r="D95" s="45"/>
       <c r="E95" s="46"/>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -3986,11 +3986,11 @@
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -3999,14 +3999,14 @@
       <c r="B97" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4015,14 +4015,14 @@
       <c r="B98" s="3">
         <v>75</v>
       </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4031,14 +4031,14 @@
       <c r="B99" s="3">
         <v>-25</v>
       </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4047,37 +4047,37 @@
       <c r="B100" s="5">
         <v>40</v>
       </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="47" t="s">
+      <c r="B101" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
     </row>
     <row r="102" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="43"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="7" t="s">
         <v>10</v>
       </c>
@@ -4090,45 +4090,45 @@
       <c r="G102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="34"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="37"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="43"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="40"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C104" s="43"/>
+      <c r="C104" s="33"/>
       <c r="D104" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="40"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -4140,13 +4140,13 @@
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="46"/>
-      <c r="F106" s="49" t="s">
+      <c r="F106" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -4158,11 +4158,11 @@
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
       <c r="E107" s="46"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="47"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4171,14 +4171,14 @@
       <c r="B108" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4187,14 +4187,14 @@
       <c r="B109" s="3">
         <v>200</v>
       </c>
-      <c r="C109" s="35"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="47"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4203,14 +4203,14 @@
       <c r="B110" s="3">
         <v>-50</v>
       </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4219,37 +4219,37 @@
       <c r="B111" s="5">
         <v>40</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49"/>
-      <c r="J111" s="49"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B112" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="43"/>
+      <c r="C113" s="33"/>
       <c r="D113" s="7" t="s">
         <v>10</v>
       </c>
@@ -4262,77 +4262,77 @@
       <c r="G113" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="34"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="43"/>
+      <c r="C114" s="33"/>
       <c r="D114" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="37"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="43"/>
+      <c r="C115" s="33"/>
       <c r="D115" s="13" t="s">
         <v>103</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="37"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
-      <c r="B116" s="41" t="s">
+      <c r="A116" s="60"/>
+      <c r="B116" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="43"/>
+      <c r="C116" s="33"/>
       <c r="D116" s="13" t="s">
         <v>104</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="37"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="40"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
-      <c r="B117" s="41" t="s">
+      <c r="A117" s="61"/>
+      <c r="B117" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="43"/>
+      <c r="C117" s="33"/>
       <c r="D117" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="40"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="43"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -4344,13 +4344,13 @@
       <c r="C119" s="45"/>
       <c r="D119" s="45"/>
       <c r="E119" s="46"/>
-      <c r="F119" s="49" t="s">
+      <c r="F119" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -4362,11 +4362,11 @@
       <c r="C120" s="45"/>
       <c r="D120" s="45"/>
       <c r="E120" s="46"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="49"/>
-      <c r="H120" s="49"/>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -4375,14 +4375,14 @@
       <c r="B121" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="49"/>
-      <c r="I121" s="49"/>
-      <c r="J121" s="49"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -4391,14 +4391,14 @@
       <c r="B122" s="3">
         <v>400</v>
       </c>
-      <c r="C122" s="35"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="47"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -4407,14 +4407,14 @@
       <c r="B123" s="3">
         <v>-60</v>
       </c>
-      <c r="C123" s="35"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49"/>
-      <c r="J123" s="49"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="47"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -4423,37 +4423,37 @@
       <c r="B124" s="5">
         <v>80</v>
       </c>
-      <c r="C124" s="35"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-      <c r="I124" s="49"/>
-      <c r="J124" s="49"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="43"/>
+      <c r="C126" s="33"/>
       <c r="D126" s="7" t="s">
         <v>10</v>
       </c>
@@ -4466,45 +4466,45 @@
       <c r="G126" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="32"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="34"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="37"/>
     </row>
     <row r="127" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C127" s="43"/>
+      <c r="C127" s="33"/>
       <c r="D127" s="13" t="s">
         <v>112</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="37"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="40"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C128" s="43"/>
+      <c r="C128" s="33"/>
       <c r="D128" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="40"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="43"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -4516,13 +4516,13 @@
       <c r="C130" s="45"/>
       <c r="D130" s="45"/>
       <c r="E130" s="46"/>
-      <c r="F130" s="49" t="s">
+      <c r="F130" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
-      <c r="I130" s="49"/>
-      <c r="J130" s="49"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+      <c r="J130" s="47"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -4534,11 +4534,11 @@
       <c r="C131" s="45"/>
       <c r="D131" s="45"/>
       <c r="E131" s="46"/>
-      <c r="F131" s="49"/>
-      <c r="G131" s="49"/>
-      <c r="H131" s="49"/>
-      <c r="I131" s="49"/>
-      <c r="J131" s="49"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+      <c r="J131" s="47"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4547,14 +4547,14 @@
       <c r="B132" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="49"/>
-      <c r="G132" s="49"/>
-      <c r="H132" s="49"/>
-      <c r="I132" s="49"/>
-      <c r="J132" s="49"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -4563,14 +4563,14 @@
       <c r="B133" s="3">
         <v>100</v>
       </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="49"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="49"/>
-      <c r="J133" s="49"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -4579,14 +4579,14 @@
       <c r="B134" s="3">
         <v>-35</v>
       </c>
-      <c r="C134" s="35"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
-      <c r="J134" s="49"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -4595,14 +4595,14 @@
       <c r="B135" s="5">
         <v>20</v>
       </c>
-      <c r="C135" s="35"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="49"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -4611,37 +4611,37 @@
       <c r="B136" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="47" t="s">
+      <c r="B137" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="49"/>
-      <c r="J137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
     </row>
     <row r="138" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C138" s="43"/>
+      <c r="C138" s="33"/>
       <c r="D138" s="7" t="s">
         <v>10</v>
       </c>
@@ -4654,43 +4654,43 @@
       <c r="G138" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="32"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="34"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="37"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="41" t="s">
+      <c r="B139" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="43"/>
+      <c r="C139" s="33"/>
       <c r="D139" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="35"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="37"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="40"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="44"/>
-      <c r="B140" s="41" t="s">
+      <c r="B140" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C140" s="43"/>
+      <c r="C140" s="33"/>
       <c r="D140" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="39"/>
-      <c r="J140" s="40"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="43"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -4702,13 +4702,13 @@
       <c r="C142" s="45"/>
       <c r="D142" s="45"/>
       <c r="E142" s="46"/>
-      <c r="F142" s="49" t="s">
+      <c r="F142" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="49"/>
-      <c r="J142" s="49"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="47"/>
+      <c r="J142" s="47"/>
     </row>
     <row r="143" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -4720,11 +4720,11 @@
       <c r="C143" s="45"/>
       <c r="D143" s="45"/>
       <c r="E143" s="46"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="49"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="47"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4733,14 +4733,14 @@
       <c r="B144" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="32"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="49"/>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="49"/>
-      <c r="J144" s="49"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
+      <c r="I144" s="47"/>
+      <c r="J144" s="47"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -4749,14 +4749,14 @@
       <c r="B145" s="3">
         <v>300</v>
       </c>
-      <c r="C145" s="35"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
-      <c r="I145" s="49"/>
-      <c r="J145" s="49"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="47"/>
+      <c r="I145" s="47"/>
+      <c r="J145" s="47"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -4765,14 +4765,14 @@
       <c r="B146" s="3">
         <v>-80</v>
       </c>
-      <c r="C146" s="35"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="49"/>
-      <c r="H146" s="49"/>
-      <c r="I146" s="49"/>
-      <c r="J146" s="49"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="47"/>
+      <c r="I146" s="47"/>
+      <c r="J146" s="47"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -4781,37 +4781,37 @@
       <c r="B147" s="5">
         <v>200</v>
       </c>
-      <c r="C147" s="35"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49"/>
-      <c r="H147" s="49"/>
-      <c r="I147" s="49"/>
-      <c r="J147" s="49"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47"/>
+      <c r="I147" s="47"/>
+      <c r="J147" s="47"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="49"/>
-      <c r="H148" s="49"/>
-      <c r="I148" s="49"/>
-      <c r="J148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47"/>
+      <c r="I148" s="47"/>
+      <c r="J148" s="47"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
-      <c r="B149" s="41" t="s">
+      <c r="B149" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C149" s="43"/>
+      <c r="C149" s="33"/>
       <c r="D149" s="7" t="s">
         <v>10</v>
       </c>
@@ -4824,57 +4824,57 @@
       <c r="G149" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="32"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="37"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="41" t="s">
+      <c r="B150" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="43"/>
+      <c r="C150" s="33"/>
       <c r="D150" s="13" t="s">
         <v>125</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="39"/>
+      <c r="J150" s="40"/>
     </row>
     <row r="151" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="60"/>
-      <c r="B151" s="41" t="s">
+      <c r="A151" s="61"/>
+      <c r="B151" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C151" s="43"/>
+      <c r="C151" s="33"/>
       <c r="D151" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="39"/>
-      <c r="J151" s="40"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="43"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="41" t="s">
+      <c r="A152" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="43"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="33"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
@@ -4898,13 +4898,13 @@
       <c r="C155" s="45"/>
       <c r="D155" s="45"/>
       <c r="E155" s="46"/>
-      <c r="F155" s="49" t="s">
+      <c r="F155" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G155" s="49"/>
-      <c r="H155" s="49"/>
-      <c r="I155" s="49"/>
-      <c r="J155" s="49"/>
+      <c r="G155" s="47"/>
+      <c r="H155" s="47"/>
+      <c r="I155" s="47"/>
+      <c r="J155" s="47"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -4916,11 +4916,11 @@
       <c r="C156" s="45"/>
       <c r="D156" s="45"/>
       <c r="E156" s="46"/>
-      <c r="F156" s="49"/>
-      <c r="G156" s="49"/>
-      <c r="H156" s="49"/>
-      <c r="I156" s="49"/>
-      <c r="J156" s="49"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="47"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -4929,14 +4929,14 @@
       <c r="B157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C157" s="32"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="49"/>
-      <c r="H157" s="49"/>
-      <c r="I157" s="49"/>
-      <c r="J157" s="49"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="37"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="47"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -4945,14 +4945,14 @@
       <c r="B158" s="3">
         <v>400</v>
       </c>
-      <c r="C158" s="35"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="49"/>
-      <c r="G158" s="49"/>
-      <c r="H158" s="49"/>
-      <c r="I158" s="49"/>
-      <c r="J158" s="49"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="47"/>
+      <c r="J158" s="47"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -4961,14 +4961,14 @@
       <c r="B159" s="3">
         <v>-50</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="49"/>
-      <c r="G159" s="49"/>
-      <c r="H159" s="49"/>
-      <c r="I159" s="49"/>
-      <c r="J159" s="49"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47"/>
+      <c r="I159" s="47"/>
+      <c r="J159" s="47"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
@@ -4977,37 +4977,37 @@
       <c r="B160" s="5">
         <v>80</v>
       </c>
-      <c r="C160" s="35"/>
-      <c r="D160" s="36"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="49"/>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49"/>
-      <c r="I160" s="49"/>
-      <c r="J160" s="49"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47"/>
+      <c r="I160" s="47"/>
+      <c r="J160" s="47"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B161" s="47" t="s">
+      <c r="B161" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="49"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="49"/>
-      <c r="I161" s="49"/>
-      <c r="J161" s="49"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47"/>
+      <c r="I161" s="47"/>
+      <c r="J161" s="47"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
-      <c r="B162" s="41" t="s">
+      <c r="B162" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="43"/>
+      <c r="C162" s="33"/>
       <c r="D162" s="7" t="s">
         <v>10</v>
       </c>
@@ -5020,127 +5020,127 @@
       <c r="G162" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="32"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="34"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="37"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="41" t="s">
+      <c r="B163" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="43"/>
+      <c r="C163" s="33"/>
       <c r="D163" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="37"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="39"/>
+      <c r="J163" s="40"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="44"/>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C164" s="43"/>
+      <c r="C164" s="33"/>
       <c r="D164" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="35"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="37"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="39"/>
+      <c r="J164" s="40"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="41" t="s">
+      <c r="B165" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C165" s="43"/>
+      <c r="C165" s="33"/>
       <c r="D165" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="35"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="37"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="39"/>
+      <c r="J165" s="40"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="61"/>
-      <c r="B166" s="41" t="s">
+      <c r="A166" s="60"/>
+      <c r="B166" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="43"/>
+      <c r="C166" s="33"/>
       <c r="D166" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="37"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="39"/>
+      <c r="J166" s="40"/>
     </row>
     <row r="167" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="61"/>
-      <c r="B167" s="41" t="s">
+      <c r="A167" s="60"/>
+      <c r="B167" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="43"/>
+      <c r="C167" s="33"/>
       <c r="D167" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="37"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="39"/>
+      <c r="J167" s="40"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="60"/>
-      <c r="B168" s="41" t="s">
+      <c r="A168" s="61"/>
+      <c r="B168" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C168" s="43"/>
+      <c r="C168" s="33"/>
       <c r="D168" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="37"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="39"/>
+      <c r="J168" s="40"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="41" t="s">
+      <c r="B169" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="43"/>
+      <c r="C169" s="33"/>
       <c r="D169" s="13" t="s">
         <v>142</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="39"/>
-      <c r="J169" s="40"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="43"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -5152,13 +5152,13 @@
       <c r="C171" s="45"/>
       <c r="D171" s="45"/>
       <c r="E171" s="46"/>
-      <c r="F171" s="49" t="s">
+      <c r="F171" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G171" s="49"/>
-      <c r="H171" s="49"/>
-      <c r="I171" s="49"/>
-      <c r="J171" s="49"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="47"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -5170,11 +5170,11 @@
       <c r="C172" s="45"/>
       <c r="D172" s="45"/>
       <c r="E172" s="46"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
-      <c r="I172" s="49"/>
-      <c r="J172" s="49"/>
+      <c r="F172" s="47"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="47"/>
+      <c r="I172" s="47"/>
+      <c r="J172" s="47"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -5183,14 +5183,14 @@
       <c r="B173" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="32"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="49"/>
-      <c r="G173" s="49"/>
-      <c r="H173" s="49"/>
-      <c r="I173" s="49"/>
-      <c r="J173" s="49"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -5199,14 +5199,14 @@
       <c r="B174" s="3">
         <v>30</v>
       </c>
-      <c r="C174" s="35"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="49"/>
-      <c r="G174" s="49"/>
-      <c r="H174" s="49"/>
-      <c r="I174" s="49"/>
-      <c r="J174" s="49"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="47"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="47"/>
+      <c r="I174" s="47"/>
+      <c r="J174" s="47"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -5215,14 +5215,14 @@
       <c r="B175" s="3">
         <v>-35</v>
       </c>
-      <c r="C175" s="35"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="49"/>
-      <c r="G175" s="49"/>
-      <c r="H175" s="49"/>
-      <c r="I175" s="49"/>
-      <c r="J175" s="49"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="47"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="47"/>
+      <c r="I175" s="47"/>
+      <c r="J175" s="47"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
@@ -5231,37 +5231,37 @@
       <c r="B176" s="5">
         <v>20</v>
       </c>
-      <c r="C176" s="35"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="49"/>
-      <c r="G176" s="49"/>
-      <c r="H176" s="49"/>
-      <c r="I176" s="49"/>
-      <c r="J176" s="49"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="47"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="47"/>
+      <c r="I176" s="47"/>
+      <c r="J176" s="47"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="47" t="s">
+      <c r="B177" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="49"/>
-      <c r="G177" s="49"/>
-      <c r="H177" s="49"/>
-      <c r="I177" s="49"/>
-      <c r="J177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+      <c r="H177" s="47"/>
+      <c r="I177" s="47"/>
+      <c r="J177" s="47"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="B178" s="41" t="s">
+      <c r="B178" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="43"/>
+      <c r="C178" s="33"/>
       <c r="D178" s="7" t="s">
         <v>10</v>
       </c>
@@ -5274,75 +5274,75 @@
       <c r="G178" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H178" s="32"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="34"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="37"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="41" t="s">
+      <c r="B179" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C179" s="43"/>
+      <c r="C179" s="33"/>
       <c r="D179" s="13" t="s">
         <v>145</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="35"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="37"/>
+      <c r="H179" s="38"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="40"/>
     </row>
     <row r="180" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="61"/>
-      <c r="B180" s="41" t="s">
+      <c r="A180" s="60"/>
+      <c r="B180" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C180" s="43"/>
+      <c r="C180" s="33"/>
       <c r="D180" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
-      <c r="H180" s="35"/>
-      <c r="I180" s="36"/>
-      <c r="J180" s="37"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="39"/>
+      <c r="J180" s="40"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="61"/>
-      <c r="B181" s="41" t="s">
+      <c r="A181" s="60"/>
+      <c r="B181" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C181" s="43"/>
+      <c r="C181" s="33"/>
       <c r="D181" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
-      <c r="H181" s="35"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="37"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="39"/>
+      <c r="J181" s="40"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="60"/>
-      <c r="B182" s="41" t="s">
+      <c r="A182" s="61"/>
+      <c r="B182" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C182" s="43"/>
+      <c r="C182" s="33"/>
       <c r="D182" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
-      <c r="H182" s="38"/>
-      <c r="I182" s="39"/>
-      <c r="J182" s="40"/>
+      <c r="H182" s="41"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="43"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -5354,13 +5354,13 @@
       <c r="C184" s="45"/>
       <c r="D184" s="45"/>
       <c r="E184" s="46"/>
-      <c r="F184" s="49" t="s">
+      <c r="F184" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G184" s="49"/>
-      <c r="H184" s="49"/>
-      <c r="I184" s="49"/>
-      <c r="J184" s="49"/>
+      <c r="G184" s="47"/>
+      <c r="H184" s="47"/>
+      <c r="I184" s="47"/>
+      <c r="J184" s="47"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -5372,11 +5372,11 @@
       <c r="C185" s="45"/>
       <c r="D185" s="45"/>
       <c r="E185" s="46"/>
-      <c r="F185" s="49"/>
-      <c r="G185" s="49"/>
-      <c r="H185" s="49"/>
-      <c r="I185" s="49"/>
-      <c r="J185" s="49"/>
+      <c r="F185" s="47"/>
+      <c r="G185" s="47"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="47"/>
+      <c r="J185" s="47"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -5385,14 +5385,14 @@
       <c r="B186" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C186" s="32"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="49"/>
-      <c r="G186" s="49"/>
-      <c r="H186" s="49"/>
-      <c r="I186" s="49"/>
-      <c r="J186" s="49"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="37"/>
+      <c r="F186" s="47"/>
+      <c r="G186" s="47"/>
+      <c r="H186" s="47"/>
+      <c r="I186" s="47"/>
+      <c r="J186" s="47"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -5401,14 +5401,14 @@
       <c r="B187" s="3">
         <v>250</v>
       </c>
-      <c r="C187" s="35"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="37"/>
-      <c r="F187" s="49"/>
-      <c r="G187" s="49"/>
-      <c r="H187" s="49"/>
-      <c r="I187" s="49"/>
-      <c r="J187" s="49"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="40"/>
+      <c r="F187" s="47"/>
+      <c r="G187" s="47"/>
+      <c r="H187" s="47"/>
+      <c r="I187" s="47"/>
+      <c r="J187" s="47"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -5417,14 +5417,14 @@
       <c r="B188" s="3">
         <v>-40</v>
       </c>
-      <c r="C188" s="35"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="49"/>
-      <c r="G188" s="49"/>
-      <c r="H188" s="49"/>
-      <c r="I188" s="49"/>
-      <c r="J188" s="49"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="40"/>
+      <c r="F188" s="47"/>
+      <c r="G188" s="47"/>
+      <c r="H188" s="47"/>
+      <c r="I188" s="47"/>
+      <c r="J188" s="47"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -5433,37 +5433,37 @@
       <c r="B189" s="5">
         <v>40</v>
       </c>
-      <c r="C189" s="35"/>
-      <c r="D189" s="36"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="49"/>
-      <c r="G189" s="49"/>
-      <c r="H189" s="49"/>
-      <c r="I189" s="49"/>
-      <c r="J189" s="49"/>
+      <c r="C189" s="38"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="47"/>
+      <c r="G189" s="47"/>
+      <c r="H189" s="47"/>
+      <c r="I189" s="47"/>
+      <c r="J189" s="47"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="47" t="s">
+      <c r="B190" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C190" s="48"/>
-      <c r="D190" s="48"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="49"/>
-      <c r="G190" s="49"/>
-      <c r="H190" s="49"/>
-      <c r="I190" s="49"/>
-      <c r="J190" s="49"/>
+      <c r="C190" s="49"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="47"/>
+      <c r="H190" s="47"/>
+      <c r="I190" s="47"/>
+      <c r="J190" s="47"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
-      <c r="B191" s="41" t="s">
+      <c r="B191" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="43"/>
+      <c r="C191" s="33"/>
       <c r="D191" s="7" t="s">
         <v>10</v>
       </c>
@@ -5476,109 +5476,109 @@
       <c r="G191" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H191" s="32"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="34"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="37"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="41" t="s">
+      <c r="B192" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="43"/>
+      <c r="C192" s="33"/>
       <c r="D192" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
-      <c r="H192" s="35"/>
-      <c r="I192" s="36"/>
-      <c r="J192" s="37"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="39"/>
+      <c r="J192" s="40"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="62" t="s">
+      <c r="B193" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C193" s="63"/>
+      <c r="C193" s="70"/>
       <c r="D193" s="13" t="s">
         <v>157</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="35"/>
-      <c r="I193" s="36"/>
-      <c r="J193" s="37"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="39"/>
+      <c r="J193" s="40"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="61"/>
-      <c r="B194" s="62" t="s">
+      <c r="A194" s="60"/>
+      <c r="B194" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C194" s="63"/>
+      <c r="C194" s="70"/>
       <c r="D194" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="36"/>
-      <c r="J194" s="37"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="39"/>
+      <c r="J194" s="40"/>
     </row>
     <row r="195" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="61"/>
-      <c r="B195" s="41" t="s">
+      <c r="A195" s="60"/>
+      <c r="B195" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C195" s="43"/>
+      <c r="C195" s="33"/>
       <c r="D195" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="36"/>
-      <c r="J195" s="37"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="39"/>
+      <c r="J195" s="40"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="61"/>
-      <c r="B196" s="41" t="s">
+      <c r="A196" s="60"/>
+      <c r="B196" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C196" s="43"/>
+      <c r="C196" s="33"/>
       <c r="D196" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="35"/>
-      <c r="I196" s="36"/>
-      <c r="J196" s="37"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="39"/>
+      <c r="J196" s="40"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="60"/>
-      <c r="B197" s="41" t="s">
+      <c r="A197" s="61"/>
+      <c r="B197" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C197" s="43"/>
+      <c r="C197" s="33"/>
       <c r="D197" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
-      <c r="H197" s="38"/>
-      <c r="I197" s="39"/>
-      <c r="J197" s="40"/>
+      <c r="H197" s="41"/>
+      <c r="I197" s="42"/>
+      <c r="J197" s="43"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -5590,13 +5590,13 @@
       <c r="C199" s="45"/>
       <c r="D199" s="45"/>
       <c r="E199" s="46"/>
-      <c r="F199" s="49" t="s">
+      <c r="F199" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G199" s="49"/>
-      <c r="H199" s="49"/>
-      <c r="I199" s="49"/>
-      <c r="J199" s="49"/>
+      <c r="G199" s="47"/>
+      <c r="H199" s="47"/>
+      <c r="I199" s="47"/>
+      <c r="J199" s="47"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -5608,11 +5608,11 @@
       <c r="C200" s="45"/>
       <c r="D200" s="45"/>
       <c r="E200" s="46"/>
-      <c r="F200" s="49"/>
-      <c r="G200" s="49"/>
-      <c r="H200" s="49"/>
-      <c r="I200" s="49"/>
-      <c r="J200" s="49"/>
+      <c r="F200" s="47"/>
+      <c r="G200" s="47"/>
+      <c r="H200" s="47"/>
+      <c r="I200" s="47"/>
+      <c r="J200" s="47"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -5621,14 +5621,14 @@
       <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="32"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="49"/>
-      <c r="G201" s="49"/>
-      <c r="H201" s="49"/>
-      <c r="I201" s="49"/>
-      <c r="J201" s="49"/>
+      <c r="C201" s="35"/>
+      <c r="D201" s="36"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="47"/>
+      <c r="G201" s="47"/>
+      <c r="H201" s="47"/>
+      <c r="I201" s="47"/>
+      <c r="J201" s="47"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -5637,14 +5637,14 @@
       <c r="B202" s="3">
         <v>25</v>
       </c>
-      <c r="C202" s="35"/>
-      <c r="D202" s="36"/>
-      <c r="E202" s="37"/>
-      <c r="F202" s="49"/>
-      <c r="G202" s="49"/>
-      <c r="H202" s="49"/>
-      <c r="I202" s="49"/>
-      <c r="J202" s="49"/>
+      <c r="C202" s="38"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="47"/>
+      <c r="G202" s="47"/>
+      <c r="H202" s="47"/>
+      <c r="I202" s="47"/>
+      <c r="J202" s="47"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -5653,14 +5653,14 @@
       <c r="B203" s="3">
         <v>-35</v>
       </c>
-      <c r="C203" s="35"/>
-      <c r="D203" s="36"/>
-      <c r="E203" s="37"/>
-      <c r="F203" s="49"/>
-      <c r="G203" s="49"/>
-      <c r="H203" s="49"/>
-      <c r="I203" s="49"/>
-      <c r="J203" s="49"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="40"/>
+      <c r="F203" s="47"/>
+      <c r="G203" s="47"/>
+      <c r="H203" s="47"/>
+      <c r="I203" s="47"/>
+      <c r="J203" s="47"/>
     </row>
     <row r="204" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -5669,37 +5669,37 @@
       <c r="B204" s="5">
         <v>10</v>
       </c>
-      <c r="C204" s="35"/>
-      <c r="D204" s="36"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="49"/>
-      <c r="G204" s="49"/>
-      <c r="H204" s="49"/>
-      <c r="I204" s="49"/>
-      <c r="J204" s="49"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="47"/>
+      <c r="G204" s="47"/>
+      <c r="H204" s="47"/>
+      <c r="I204" s="47"/>
+      <c r="J204" s="47"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="47" t="s">
+      <c r="B205" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C205" s="48"/>
-      <c r="D205" s="48"/>
-      <c r="E205" s="48"/>
-      <c r="F205" s="49"/>
-      <c r="G205" s="49"/>
-      <c r="H205" s="49"/>
-      <c r="I205" s="49"/>
-      <c r="J205" s="49"/>
+      <c r="C205" s="49"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="47"/>
+      <c r="G205" s="47"/>
+      <c r="H205" s="47"/>
+      <c r="I205" s="47"/>
+      <c r="J205" s="47"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
-      <c r="B206" s="41" t="s">
+      <c r="B206" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C206" s="43"/>
+      <c r="C206" s="33"/>
       <c r="D206" s="7" t="s">
         <v>10</v>
       </c>
@@ -5712,43 +5712,43 @@
       <c r="G206" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H206" s="32"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="34"/>
+      <c r="H206" s="35"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="37"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B207" s="41" t="s">
+      <c r="B207" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C207" s="43"/>
+      <c r="C207" s="33"/>
       <c r="D207" s="10" t="s">
         <v>165</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
-      <c r="H207" s="35"/>
-      <c r="I207" s="36"/>
-      <c r="J207" s="37"/>
+      <c r="H207" s="38"/>
+      <c r="I207" s="39"/>
+      <c r="J207" s="40"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="60"/>
-      <c r="B208" s="41" t="s">
+      <c r="A208" s="61"/>
+      <c r="B208" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C208" s="43"/>
+      <c r="C208" s="33"/>
       <c r="D208" s="10" t="s">
         <v>167</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
-      <c r="H208" s="38"/>
-      <c r="I208" s="39"/>
-      <c r="J208" s="40"/>
+      <c r="H208" s="41"/>
+      <c r="I208" s="42"/>
+      <c r="J208" s="43"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
@@ -5760,13 +5760,13 @@
       <c r="C210" s="45"/>
       <c r="D210" s="45"/>
       <c r="E210" s="46"/>
-      <c r="F210" s="49" t="s">
+      <c r="F210" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G210" s="49"/>
-      <c r="H210" s="49"/>
-      <c r="I210" s="49"/>
-      <c r="J210" s="49"/>
+      <c r="G210" s="47"/>
+      <c r="H210" s="47"/>
+      <c r="I210" s="47"/>
+      <c r="J210" s="47"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -5778,11 +5778,11 @@
       <c r="C211" s="45"/>
       <c r="D211" s="45"/>
       <c r="E211" s="46"/>
-      <c r="F211" s="49"/>
-      <c r="G211" s="49"/>
-      <c r="H211" s="49"/>
-      <c r="I211" s="49"/>
-      <c r="J211" s="49"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="47"/>
+      <c r="I211" s="47"/>
+      <c r="J211" s="47"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -5791,14 +5791,14 @@
       <c r="B212" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C212" s="32"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="49"/>
-      <c r="G212" s="49"/>
-      <c r="H212" s="49"/>
-      <c r="I212" s="49"/>
-      <c r="J212" s="49"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="37"/>
+      <c r="F212" s="47"/>
+      <c r="G212" s="47"/>
+      <c r="H212" s="47"/>
+      <c r="I212" s="47"/>
+      <c r="J212" s="47"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -5807,37 +5807,37 @@
       <c r="B213" s="3">
         <v>4000</v>
       </c>
-      <c r="C213" s="35"/>
-      <c r="D213" s="36"/>
-      <c r="E213" s="37"/>
-      <c r="F213" s="49"/>
-      <c r="G213" s="49"/>
-      <c r="H213" s="49"/>
-      <c r="I213" s="49"/>
-      <c r="J213" s="49"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="47"/>
+      <c r="G213" s="47"/>
+      <c r="H213" s="47"/>
+      <c r="I213" s="47"/>
+      <c r="J213" s="47"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="47" t="s">
+      <c r="B214" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C214" s="48"/>
-      <c r="D214" s="48"/>
-      <c r="E214" s="48"/>
-      <c r="F214" s="49"/>
-      <c r="G214" s="49"/>
-      <c r="H214" s="49"/>
-      <c r="I214" s="49"/>
-      <c r="J214" s="49"/>
+      <c r="C214" s="49"/>
+      <c r="D214" s="49"/>
+      <c r="E214" s="49"/>
+      <c r="F214" s="47"/>
+      <c r="G214" s="47"/>
+      <c r="H214" s="47"/>
+      <c r="I214" s="47"/>
+      <c r="J214" s="47"/>
     </row>
     <row r="215" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
-      <c r="B215" s="41" t="s">
+      <c r="B215" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C215" s="43"/>
+      <c r="C215" s="33"/>
       <c r="D215" s="7" t="s">
         <v>10</v>
       </c>
@@ -5850,45 +5850,45 @@
       <c r="G215" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H215" s="32"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="34"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="36"/>
+      <c r="J215" s="37"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="41" t="s">
+      <c r="B216" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C216" s="43"/>
+      <c r="C216" s="33"/>
       <c r="D216" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
-      <c r="H216" s="35"/>
-      <c r="I216" s="36"/>
-      <c r="J216" s="37"/>
+      <c r="H216" s="38"/>
+      <c r="I216" s="39"/>
+      <c r="J216" s="40"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C217" s="43"/>
+      <c r="C217" s="33"/>
       <c r="D217" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="38"/>
-      <c r="I217" s="39"/>
-      <c r="J217" s="40"/>
+      <c r="H217" s="41"/>
+      <c r="I217" s="42"/>
+      <c r="J217" s="43"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -5900,13 +5900,13 @@
       <c r="C219" s="45"/>
       <c r="D219" s="45"/>
       <c r="E219" s="46"/>
-      <c r="F219" s="49" t="s">
+      <c r="F219" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G219" s="49"/>
-      <c r="H219" s="49"/>
-      <c r="I219" s="49"/>
-      <c r="J219" s="49"/>
+      <c r="G219" s="47"/>
+      <c r="H219" s="47"/>
+      <c r="I219" s="47"/>
+      <c r="J219" s="47"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -5918,11 +5918,11 @@
       <c r="C220" s="45"/>
       <c r="D220" s="45"/>
       <c r="E220" s="46"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
-      <c r="I220" s="49"/>
-      <c r="J220" s="49"/>
+      <c r="F220" s="47"/>
+      <c r="G220" s="47"/>
+      <c r="H220" s="47"/>
+      <c r="I220" s="47"/>
+      <c r="J220" s="47"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -5931,14 +5931,14 @@
       <c r="B221" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C221" s="32"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="49"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="49"/>
-      <c r="I221" s="49"/>
-      <c r="J221" s="49"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="36"/>
+      <c r="E221" s="37"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="47"/>
+      <c r="I221" s="47"/>
+      <c r="J221" s="47"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -5947,14 +5947,14 @@
       <c r="B222" s="3">
         <v>500</v>
       </c>
-      <c r="C222" s="35"/>
-      <c r="D222" s="36"/>
-      <c r="E222" s="37"/>
-      <c r="F222" s="49"/>
-      <c r="G222" s="49"/>
-      <c r="H222" s="49"/>
-      <c r="I222" s="49"/>
-      <c r="J222" s="49"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="40"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="47"/>
+      <c r="I222" s="47"/>
+      <c r="J222" s="47"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -5963,14 +5963,14 @@
       <c r="B223" s="3">
         <v>-60</v>
       </c>
-      <c r="C223" s="35"/>
-      <c r="D223" s="36"/>
-      <c r="E223" s="37"/>
-      <c r="F223" s="49"/>
-      <c r="G223" s="49"/>
-      <c r="H223" s="49"/>
-      <c r="I223" s="49"/>
-      <c r="J223" s="49"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="39"/>
+      <c r="E223" s="40"/>
+      <c r="F223" s="47"/>
+      <c r="G223" s="47"/>
+      <c r="H223" s="47"/>
+      <c r="I223" s="47"/>
+      <c r="J223" s="47"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
@@ -5979,37 +5979,37 @@
       <c r="B224" s="5">
         <v>200</v>
       </c>
-      <c r="C224" s="35"/>
-      <c r="D224" s="36"/>
-      <c r="E224" s="37"/>
-      <c r="F224" s="49"/>
-      <c r="G224" s="49"/>
-      <c r="H224" s="49"/>
-      <c r="I224" s="49"/>
-      <c r="J224" s="49"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="39"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="47"/>
+      <c r="G224" s="47"/>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47"/>
+      <c r="J224" s="47"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="47" t="s">
+      <c r="B225" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C225" s="48"/>
-      <c r="D225" s="48"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
-      <c r="H225" s="49"/>
-      <c r="I225" s="49"/>
-      <c r="J225" s="49"/>
+      <c r="C225" s="49"/>
+      <c r="D225" s="49"/>
+      <c r="E225" s="49"/>
+      <c r="F225" s="47"/>
+      <c r="G225" s="47"/>
+      <c r="H225" s="47"/>
+      <c r="I225" s="47"/>
+      <c r="J225" s="47"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
-      <c r="B226" s="41" t="s">
+      <c r="B226" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C226" s="43"/>
+      <c r="C226" s="33"/>
       <c r="D226" s="7" t="s">
         <v>10</v>
       </c>
@@ -6022,61 +6022,61 @@
       <c r="G226" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="32"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="34"/>
+      <c r="H226" s="35"/>
+      <c r="I226" s="36"/>
+      <c r="J226" s="37"/>
     </row>
     <row r="227" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B227" s="41" t="s">
+      <c r="B227" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C227" s="43"/>
+      <c r="C227" s="33"/>
       <c r="D227" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
-      <c r="H227" s="35"/>
-      <c r="I227" s="36"/>
-      <c r="J227" s="37"/>
+      <c r="H227" s="38"/>
+      <c r="I227" s="39"/>
+      <c r="J227" s="40"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B228" s="41" t="s">
+      <c r="B228" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C228" s="43"/>
+      <c r="C228" s="33"/>
       <c r="D228" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="35"/>
-      <c r="I228" s="36"/>
-      <c r="J228" s="37"/>
+      <c r="H228" s="38"/>
+      <c r="I228" s="39"/>
+      <c r="J228" s="40"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="60"/>
-      <c r="B229" s="41" t="s">
+      <c r="A229" s="61"/>
+      <c r="B229" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C229" s="43"/>
+      <c r="C229" s="33"/>
       <c r="D229" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="38"/>
-      <c r="I229" s="39"/>
-      <c r="J229" s="40"/>
+      <c r="H229" s="41"/>
+      <c r="I229" s="42"/>
+      <c r="J229" s="43"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
@@ -6088,13 +6088,13 @@
       <c r="C231" s="45"/>
       <c r="D231" s="45"/>
       <c r="E231" s="46"/>
-      <c r="F231" s="49" t="s">
+      <c r="F231" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G231" s="49"/>
-      <c r="H231" s="49"/>
-      <c r="I231" s="49"/>
-      <c r="J231" s="49"/>
+      <c r="G231" s="47"/>
+      <c r="H231" s="47"/>
+      <c r="I231" s="47"/>
+      <c r="J231" s="47"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -6106,11 +6106,11 @@
       <c r="C232" s="45"/>
       <c r="D232" s="45"/>
       <c r="E232" s="46"/>
-      <c r="F232" s="49"/>
-      <c r="G232" s="49"/>
-      <c r="H232" s="49"/>
-      <c r="I232" s="49"/>
-      <c r="J232" s="49"/>
+      <c r="F232" s="47"/>
+      <c r="G232" s="47"/>
+      <c r="H232" s="47"/>
+      <c r="I232" s="47"/>
+      <c r="J232" s="47"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -6119,14 +6119,14 @@
       <c r="B233" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C233" s="32"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="34"/>
-      <c r="F233" s="49"/>
-      <c r="G233" s="49"/>
-      <c r="H233" s="49"/>
-      <c r="I233" s="49"/>
-      <c r="J233" s="49"/>
+      <c r="C233" s="35"/>
+      <c r="D233" s="36"/>
+      <c r="E233" s="37"/>
+      <c r="F233" s="47"/>
+      <c r="G233" s="47"/>
+      <c r="H233" s="47"/>
+      <c r="I233" s="47"/>
+      <c r="J233" s="47"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -6135,14 +6135,14 @@
       <c r="B234" s="3">
         <v>400</v>
       </c>
-      <c r="C234" s="35"/>
-      <c r="D234" s="36"/>
-      <c r="E234" s="37"/>
-      <c r="F234" s="49"/>
-      <c r="G234" s="49"/>
-      <c r="H234" s="49"/>
-      <c r="I234" s="49"/>
-      <c r="J234" s="49"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="47"/>
+      <c r="G234" s="47"/>
+      <c r="H234" s="47"/>
+      <c r="I234" s="47"/>
+      <c r="J234" s="47"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -6151,14 +6151,14 @@
       <c r="B235" s="3">
         <v>-60</v>
       </c>
-      <c r="C235" s="35"/>
-      <c r="D235" s="36"/>
-      <c r="E235" s="37"/>
-      <c r="F235" s="49"/>
-      <c r="G235" s="49"/>
-      <c r="H235" s="49"/>
-      <c r="I235" s="49"/>
-      <c r="J235" s="49"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="40"/>
+      <c r="F235" s="47"/>
+      <c r="G235" s="47"/>
+      <c r="H235" s="47"/>
+      <c r="I235" s="47"/>
+      <c r="J235" s="47"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
@@ -6167,37 +6167,37 @@
       <c r="B236" s="5">
         <v>80</v>
       </c>
-      <c r="C236" s="35"/>
-      <c r="D236" s="36"/>
-      <c r="E236" s="37"/>
-      <c r="F236" s="49"/>
-      <c r="G236" s="49"/>
-      <c r="H236" s="49"/>
-      <c r="I236" s="49"/>
-      <c r="J236" s="49"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="40"/>
+      <c r="F236" s="47"/>
+      <c r="G236" s="47"/>
+      <c r="H236" s="47"/>
+      <c r="I236" s="47"/>
+      <c r="J236" s="47"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="47" t="s">
+      <c r="B237" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C237" s="48"/>
-      <c r="D237" s="48"/>
-      <c r="E237" s="48"/>
-      <c r="F237" s="49"/>
-      <c r="G237" s="49"/>
-      <c r="H237" s="49"/>
-      <c r="I237" s="49"/>
-      <c r="J237" s="49"/>
+      <c r="C237" s="49"/>
+      <c r="D237" s="49"/>
+      <c r="E237" s="49"/>
+      <c r="F237" s="47"/>
+      <c r="G237" s="47"/>
+      <c r="H237" s="47"/>
+      <c r="I237" s="47"/>
+      <c r="J237" s="47"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
-      <c r="B238" s="41" t="s">
+      <c r="B238" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C238" s="43"/>
+      <c r="C238" s="33"/>
       <c r="D238" s="7" t="s">
         <v>10</v>
       </c>
@@ -6210,77 +6210,77 @@
       <c r="G238" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="32"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="34"/>
+      <c r="H238" s="35"/>
+      <c r="I238" s="36"/>
+      <c r="J238" s="37"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="41" t="s">
+      <c r="B239" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C239" s="43"/>
+      <c r="C239" s="33"/>
       <c r="D239" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
-      <c r="H239" s="35"/>
-      <c r="I239" s="36"/>
-      <c r="J239" s="37"/>
+      <c r="H239" s="38"/>
+      <c r="I239" s="39"/>
+      <c r="J239" s="40"/>
     </row>
     <row r="240" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="61" t="s">
+      <c r="A240" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B240" s="41" t="s">
+      <c r="B240" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C240" s="43"/>
+      <c r="C240" s="33"/>
       <c r="D240" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="35"/>
-      <c r="I240" s="36"/>
-      <c r="J240" s="37"/>
+      <c r="H240" s="38"/>
+      <c r="I240" s="39"/>
+      <c r="J240" s="40"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="61"/>
-      <c r="B241" s="41" t="s">
+      <c r="A241" s="60"/>
+      <c r="B241" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="C241" s="43"/>
+      <c r="C241" s="33"/>
       <c r="D241" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="35"/>
-      <c r="I241" s="36"/>
-      <c r="J241" s="37"/>
+      <c r="H241" s="38"/>
+      <c r="I241" s="39"/>
+      <c r="J241" s="40"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="60"/>
-      <c r="B242" s="41" t="s">
+      <c r="A242" s="61"/>
+      <c r="B242" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C242" s="43"/>
+      <c r="C242" s="33"/>
       <c r="D242" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="38"/>
-      <c r="I242" s="39"/>
-      <c r="J242" s="40"/>
+      <c r="H242" s="41"/>
+      <c r="I242" s="42"/>
+      <c r="J242" s="43"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
@@ -6292,13 +6292,13 @@
       <c r="C244" s="45"/>
       <c r="D244" s="45"/>
       <c r="E244" s="46"/>
-      <c r="F244" s="49" t="s">
+      <c r="F244" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G244" s="49"/>
-      <c r="H244" s="49"/>
-      <c r="I244" s="49"/>
-      <c r="J244" s="49"/>
+      <c r="G244" s="47"/>
+      <c r="H244" s="47"/>
+      <c r="I244" s="47"/>
+      <c r="J244" s="47"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -6310,11 +6310,11 @@
       <c r="C245" s="45"/>
       <c r="D245" s="45"/>
       <c r="E245" s="46"/>
-      <c r="F245" s="49"/>
-      <c r="G245" s="49"/>
-      <c r="H245" s="49"/>
-      <c r="I245" s="49"/>
-      <c r="J245" s="49"/>
+      <c r="F245" s="47"/>
+      <c r="G245" s="47"/>
+      <c r="H245" s="47"/>
+      <c r="I245" s="47"/>
+      <c r="J245" s="47"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
@@ -6323,14 +6323,14 @@
       <c r="B246" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C246" s="32"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="49"/>
-      <c r="G246" s="49"/>
-      <c r="H246" s="49"/>
-      <c r="I246" s="49"/>
-      <c r="J246" s="49"/>
+      <c r="C246" s="35"/>
+      <c r="D246" s="36"/>
+      <c r="E246" s="37"/>
+      <c r="F246" s="47"/>
+      <c r="G246" s="47"/>
+      <c r="H246" s="47"/>
+      <c r="I246" s="47"/>
+      <c r="J246" s="47"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -6339,14 +6339,14 @@
       <c r="B247" s="3">
         <v>60</v>
       </c>
-      <c r="C247" s="35"/>
-      <c r="D247" s="36"/>
-      <c r="E247" s="37"/>
-      <c r="F247" s="49"/>
-      <c r="G247" s="49"/>
-      <c r="H247" s="49"/>
-      <c r="I247" s="49"/>
-      <c r="J247" s="49"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="40"/>
+      <c r="F247" s="47"/>
+      <c r="G247" s="47"/>
+      <c r="H247" s="47"/>
+      <c r="I247" s="47"/>
+      <c r="J247" s="47"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
@@ -6355,14 +6355,14 @@
       <c r="B248" s="3">
         <v>-25</v>
       </c>
-      <c r="C248" s="35"/>
-      <c r="D248" s="36"/>
-      <c r="E248" s="37"/>
-      <c r="F248" s="49"/>
-      <c r="G248" s="49"/>
-      <c r="H248" s="49"/>
-      <c r="I248" s="49"/>
-      <c r="J248" s="49"/>
+      <c r="C248" s="38"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="40"/>
+      <c r="F248" s="47"/>
+      <c r="G248" s="47"/>
+      <c r="H248" s="47"/>
+      <c r="I248" s="47"/>
+      <c r="J248" s="47"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
@@ -6371,37 +6371,37 @@
       <c r="B249" s="5">
         <v>10</v>
       </c>
-      <c r="C249" s="35"/>
-      <c r="D249" s="36"/>
-      <c r="E249" s="37"/>
-      <c r="F249" s="49"/>
-      <c r="G249" s="49"/>
-      <c r="H249" s="49"/>
-      <c r="I249" s="49"/>
-      <c r="J249" s="49"/>
+      <c r="C249" s="38"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="40"/>
+      <c r="F249" s="47"/>
+      <c r="G249" s="47"/>
+      <c r="H249" s="47"/>
+      <c r="I249" s="47"/>
+      <c r="J249" s="47"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="47" t="s">
+      <c r="B250" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C250" s="48"/>
-      <c r="D250" s="48"/>
-      <c r="E250" s="48"/>
-      <c r="F250" s="49"/>
-      <c r="G250" s="49"/>
-      <c r="H250" s="49"/>
-      <c r="I250" s="49"/>
-      <c r="J250" s="49"/>
+      <c r="C250" s="49"/>
+      <c r="D250" s="49"/>
+      <c r="E250" s="49"/>
+      <c r="F250" s="47"/>
+      <c r="G250" s="47"/>
+      <c r="H250" s="47"/>
+      <c r="I250" s="47"/>
+      <c r="J250" s="47"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
-      <c r="B251" s="41" t="s">
+      <c r="B251" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C251" s="43"/>
+      <c r="C251" s="33"/>
       <c r="D251" s="7" t="s">
         <v>10</v>
       </c>
@@ -6414,45 +6414,45 @@
       <c r="G251" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H251" s="32"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="34"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="36"/>
+      <c r="J251" s="37"/>
     </row>
     <row r="252" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B252" s="41" t="s">
+      <c r="B252" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C252" s="43"/>
+      <c r="C252" s="33"/>
       <c r="D252" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
-      <c r="H252" s="35"/>
-      <c r="I252" s="36"/>
-      <c r="J252" s="37"/>
+      <c r="H252" s="38"/>
+      <c r="I252" s="39"/>
+      <c r="J252" s="40"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B253" s="41" t="s">
+      <c r="B253" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C253" s="43"/>
+      <c r="C253" s="33"/>
       <c r="D253" s="13" t="s">
         <v>199</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
-      <c r="H253" s="38"/>
-      <c r="I253" s="39"/>
-      <c r="J253" s="40"/>
+      <c r="H253" s="41"/>
+      <c r="I253" s="42"/>
+      <c r="J253" s="43"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
@@ -6464,13 +6464,13 @@
       <c r="C255" s="45"/>
       <c r="D255" s="45"/>
       <c r="E255" s="46"/>
-      <c r="F255" s="49" t="s">
+      <c r="F255" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G255" s="49"/>
-      <c r="H255" s="49"/>
-      <c r="I255" s="49"/>
-      <c r="J255" s="49"/>
+      <c r="G255" s="47"/>
+      <c r="H255" s="47"/>
+      <c r="I255" s="47"/>
+      <c r="J255" s="47"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -6482,11 +6482,11 @@
       <c r="C256" s="45"/>
       <c r="D256" s="45"/>
       <c r="E256" s="46"/>
-      <c r="F256" s="49"/>
-      <c r="G256" s="49"/>
-      <c r="H256" s="49"/>
-      <c r="I256" s="49"/>
-      <c r="J256" s="49"/>
+      <c r="F256" s="47"/>
+      <c r="G256" s="47"/>
+      <c r="H256" s="47"/>
+      <c r="I256" s="47"/>
+      <c r="J256" s="47"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -6495,14 +6495,14 @@
       <c r="B257" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C257" s="32"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="49"/>
-      <c r="G257" s="49"/>
-      <c r="H257" s="49"/>
-      <c r="I257" s="49"/>
-      <c r="J257" s="49"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="36"/>
+      <c r="E257" s="37"/>
+      <c r="F257" s="47"/>
+      <c r="G257" s="47"/>
+      <c r="H257" s="47"/>
+      <c r="I257" s="47"/>
+      <c r="J257" s="47"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
@@ -6511,14 +6511,14 @@
       <c r="B258" s="3">
         <v>120</v>
       </c>
-      <c r="C258" s="35"/>
-      <c r="D258" s="36"/>
-      <c r="E258" s="37"/>
-      <c r="F258" s="49"/>
-      <c r="G258" s="49"/>
-      <c r="H258" s="49"/>
-      <c r="I258" s="49"/>
-      <c r="J258" s="49"/>
+      <c r="C258" s="38"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="47"/>
+      <c r="G258" s="47"/>
+      <c r="H258" s="47"/>
+      <c r="I258" s="47"/>
+      <c r="J258" s="47"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -6527,14 +6527,14 @@
       <c r="B259" s="3">
         <v>-35</v>
       </c>
-      <c r="C259" s="35"/>
-      <c r="D259" s="36"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="49"/>
-      <c r="G259" s="49"/>
-      <c r="H259" s="49"/>
-      <c r="I259" s="49"/>
-      <c r="J259" s="49"/>
+      <c r="C259" s="38"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="47"/>
+      <c r="G259" s="47"/>
+      <c r="H259" s="47"/>
+      <c r="I259" s="47"/>
+      <c r="J259" s="47"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
@@ -6543,14 +6543,14 @@
       <c r="B260" s="5">
         <v>20</v>
       </c>
-      <c r="C260" s="35"/>
-      <c r="D260" s="36"/>
-      <c r="E260" s="37"/>
-      <c r="F260" s="49"/>
-      <c r="G260" s="49"/>
-      <c r="H260" s="49"/>
-      <c r="I260" s="49"/>
-      <c r="J260" s="49"/>
+      <c r="C260" s="38"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="47"/>
+      <c r="G260" s="47"/>
+      <c r="H260" s="47"/>
+      <c r="I260" s="47"/>
+      <c r="J260" s="47"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
@@ -6559,37 +6559,37 @@
       <c r="B261" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C261" s="38"/>
-      <c r="D261" s="39"/>
-      <c r="E261" s="40"/>
-      <c r="F261" s="49"/>
-      <c r="G261" s="49"/>
-      <c r="H261" s="49"/>
-      <c r="I261" s="49"/>
-      <c r="J261" s="49"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="42"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="47"/>
+      <c r="G261" s="47"/>
+      <c r="H261" s="47"/>
+      <c r="I261" s="47"/>
+      <c r="J261" s="47"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="47" t="s">
+      <c r="B262" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="C262" s="48"/>
-      <c r="D262" s="48"/>
-      <c r="E262" s="48"/>
-      <c r="F262" s="49"/>
-      <c r="G262" s="49"/>
-      <c r="H262" s="49"/>
-      <c r="I262" s="49"/>
-      <c r="J262" s="49"/>
+      <c r="C262" s="49"/>
+      <c r="D262" s="49"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="47"/>
+      <c r="G262" s="47"/>
+      <c r="H262" s="47"/>
+      <c r="I262" s="47"/>
+      <c r="J262" s="47"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
-      <c r="B263" s="41" t="s">
+      <c r="B263" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="43"/>
+      <c r="C263" s="33"/>
       <c r="D263" s="7" t="s">
         <v>10</v>
       </c>
@@ -6602,27 +6602,27 @@
       <c r="G263" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H263" s="32"/>
-      <c r="I263" s="33"/>
-      <c r="J263" s="34"/>
+      <c r="H263" s="35"/>
+      <c r="I263" s="36"/>
+      <c r="J263" s="37"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B264" s="41" t="s">
+      <c r="B264" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C264" s="43"/>
+      <c r="C264" s="33"/>
       <c r="D264" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
-      <c r="H264" s="38"/>
-      <c r="I264" s="39"/>
-      <c r="J264" s="40"/>
+      <c r="H264" s="41"/>
+      <c r="I264" s="42"/>
+      <c r="J264" s="43"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
@@ -6634,13 +6634,13 @@
       <c r="C266" s="45"/>
       <c r="D266" s="45"/>
       <c r="E266" s="46"/>
-      <c r="F266" s="49" t="s">
+      <c r="F266" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G266" s="49"/>
-      <c r="H266" s="49"/>
-      <c r="I266" s="49"/>
-      <c r="J266" s="49"/>
+      <c r="G266" s="47"/>
+      <c r="H266" s="47"/>
+      <c r="I266" s="47"/>
+      <c r="J266" s="47"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
@@ -6652,11 +6652,11 @@
       <c r="C267" s="45"/>
       <c r="D267" s="45"/>
       <c r="E267" s="46"/>
-      <c r="F267" s="49"/>
-      <c r="G267" s="49"/>
-      <c r="H267" s="49"/>
-      <c r="I267" s="49"/>
-      <c r="J267" s="49"/>
+      <c r="F267" s="47"/>
+      <c r="G267" s="47"/>
+      <c r="H267" s="47"/>
+      <c r="I267" s="47"/>
+      <c r="J267" s="47"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -6665,14 +6665,14 @@
       <c r="B268" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C268" s="32"/>
-      <c r="D268" s="33"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="49"/>
-      <c r="G268" s="49"/>
-      <c r="H268" s="49"/>
-      <c r="I268" s="49"/>
-      <c r="J268" s="49"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="36"/>
+      <c r="E268" s="37"/>
+      <c r="F268" s="47"/>
+      <c r="G268" s="47"/>
+      <c r="H268" s="47"/>
+      <c r="I268" s="47"/>
+      <c r="J268" s="47"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
@@ -6681,37 +6681,37 @@
       <c r="B269" s="3">
         <v>2500</v>
       </c>
-      <c r="C269" s="35"/>
-      <c r="D269" s="36"/>
-      <c r="E269" s="37"/>
-      <c r="F269" s="49"/>
-      <c r="G269" s="49"/>
-      <c r="H269" s="49"/>
-      <c r="I269" s="49"/>
-      <c r="J269" s="49"/>
+      <c r="C269" s="38"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="40"/>
+      <c r="F269" s="47"/>
+      <c r="G269" s="47"/>
+      <c r="H269" s="47"/>
+      <c r="I269" s="47"/>
+      <c r="J269" s="47"/>
     </row>
     <row r="270" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B270" s="47" t="s">
+      <c r="B270" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48"/>
-      <c r="E270" s="48"/>
-      <c r="F270" s="49"/>
-      <c r="G270" s="49"/>
-      <c r="H270" s="49"/>
-      <c r="I270" s="49"/>
-      <c r="J270" s="49"/>
+      <c r="C270" s="49"/>
+      <c r="D270" s="49"/>
+      <c r="E270" s="49"/>
+      <c r="F270" s="47"/>
+      <c r="G270" s="47"/>
+      <c r="H270" s="47"/>
+      <c r="I270" s="47"/>
+      <c r="J270" s="47"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
-      <c r="B271" s="41" t="s">
+      <c r="B271" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C271" s="43"/>
+      <c r="C271" s="33"/>
       <c r="D271" s="7" t="s">
         <v>10</v>
       </c>
@@ -6724,253 +6724,106 @@
       <c r="G271" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H271" s="32"/>
-      <c r="I271" s="33"/>
-      <c r="J271" s="34"/>
+      <c r="H271" s="35"/>
+      <c r="I271" s="36"/>
+      <c r="J271" s="37"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B272" s="41" t="s">
+      <c r="B272" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C272" s="43"/>
+      <c r="C272" s="33"/>
       <c r="D272" s="10" t="s">
         <v>106</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
-      <c r="H272" s="35"/>
-      <c r="I272" s="36"/>
-      <c r="J272" s="37"/>
+      <c r="H272" s="38"/>
+      <c r="I272" s="39"/>
+      <c r="J272" s="40"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="60"/>
-      <c r="B273" s="41" t="s">
+      <c r="A273" s="61"/>
+      <c r="B273" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="43"/>
+      <c r="C273" s="33"/>
       <c r="D273" s="10" t="s">
         <v>215</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
-      <c r="H273" s="35"/>
-      <c r="I273" s="36"/>
-      <c r="J273" s="37"/>
+      <c r="H273" s="38"/>
+      <c r="I273" s="39"/>
+      <c r="J273" s="40"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B274" s="41" t="s">
+      <c r="B274" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C274" s="43"/>
+      <c r="C274" s="33"/>
       <c r="D274" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
-      <c r="H274" s="38"/>
-      <c r="I274" s="39"/>
-      <c r="J274" s="40"/>
+      <c r="H274" s="41"/>
+      <c r="I274" s="42"/>
+      <c r="J274" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:J13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C3:E6"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J35"/>
-    <mergeCell ref="C28:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F38:J46"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="C39:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F49:J57"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="C50:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F60:J70"/>
-    <mergeCell ref="E66:E70"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:J80"/>
-    <mergeCell ref="C76:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="H81:J82"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:J91"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H92:J93"/>
-    <mergeCell ref="C86:E90"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:J101"/>
-    <mergeCell ref="C97:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H102:J104"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="F107:J112"/>
-    <mergeCell ref="C108:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="H113:J117"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="F120:J125"/>
-    <mergeCell ref="C121:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H126:J128"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="F130:J130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="F131:J137"/>
-    <mergeCell ref="C132:E136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:J142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:J148"/>
-    <mergeCell ref="C144:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="H138:J140"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:J161"/>
-    <mergeCell ref="C157:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="H149:J151"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:J171"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:J177"/>
-    <mergeCell ref="C173:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H162:J169"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="F184:J184"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="F185:J190"/>
-    <mergeCell ref="C186:E189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="H178:J182"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="F199:J199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="F200:J205"/>
-    <mergeCell ref="C201:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="H191:J197"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="F211:J214"/>
-    <mergeCell ref="C212:E213"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="H206:J208"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="F219:J219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="F220:J225"/>
-    <mergeCell ref="C221:E224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="H215:J217"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="F266:J266"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="F267:J270"/>
+    <mergeCell ref="C268:E269"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="H271:J274"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="H263:J264"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="F255:J255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="F256:J262"/>
+    <mergeCell ref="C257:E261"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="H251:J253"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="F244:J244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="F245:J250"/>
+    <mergeCell ref="C246:E249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B199:E199"/>
     <mergeCell ref="A150:A151"/>
     <mergeCell ref="A152:J152"/>
     <mergeCell ref="B165:C165"/>
@@ -6995,48 +6848,195 @@
     <mergeCell ref="B228:C228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B219:E219"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="H251:J253"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="F244:J244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="F245:J250"/>
-    <mergeCell ref="C246:E249"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="H263:J264"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="F255:J255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="F256:J262"/>
-    <mergeCell ref="C257:E261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B266:E266"/>
-    <mergeCell ref="F266:J266"/>
-    <mergeCell ref="B267:E267"/>
-    <mergeCell ref="F267:J270"/>
-    <mergeCell ref="C268:E269"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="H271:J274"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="F219:J219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="F220:J225"/>
+    <mergeCell ref="C221:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="H215:J217"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="F211:J214"/>
+    <mergeCell ref="C212:E213"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="H206:J208"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="F199:J199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="F200:J205"/>
+    <mergeCell ref="C201:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="H191:J197"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="B185:E185"/>
+    <mergeCell ref="F185:J190"/>
+    <mergeCell ref="C186:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="H178:J182"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:J171"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:J177"/>
+    <mergeCell ref="C173:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H162:J169"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:J161"/>
+    <mergeCell ref="C157:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="H149:J151"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:J142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:J148"/>
+    <mergeCell ref="C144:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="H138:J140"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H126:J128"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="F130:J130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="F131:J137"/>
+    <mergeCell ref="C132:E136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="F120:J125"/>
+    <mergeCell ref="C121:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H102:J104"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:J112"/>
+    <mergeCell ref="C108:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="H113:J117"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:J101"/>
+    <mergeCell ref="C97:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:J91"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="H92:J93"/>
+    <mergeCell ref="C86:E90"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:J80"/>
+    <mergeCell ref="C76:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H81:J82"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F60:J70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="F49:J57"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="C50:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J35"/>
+    <mergeCell ref="C28:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F38:J46"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C39:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:J13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C3:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7047,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,13 +7073,13 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7091,11 +7091,11 @@
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7104,30 +7104,30 @@
       <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7136,16 +7136,16 @@
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -7154,16 +7154,16 @@
       <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
@@ -7172,269 +7172,265 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -7444,12 +7440,16 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/readmesrc/readme_sourcetables.xlsx
+++ b/readmesrc/readme_sourcetables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Dropbox\QUAKE\keep\readmesrc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\GitHub\Keep\Keep\readmesrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -795,6 +795,27 @@
   </si>
   <si>
     <t>Lava and Smoke</t>
+  </si>
+  <si>
+    <t>Skull Wizard</t>
+  </si>
+  <si>
+    <t>monster_skullwiz</t>
+  </si>
+  <si>
+    <t>Normal shoots flaming explosive skulls in a straight line.  Spawnflag 4 causes lost soul Minions to spawn up to minion_count and then will shoot explosive skulls until minion count is reduced; also increases health to 180; overrides Spawnflag 2.  Spawnflag 2 is a stronger Guardian version with health 240 and changes explosive skull to a poisonous explosive skull.  Phases invisible and teleports away when player is within melee distance.  If target2 is set, will find info_skullwiz_destination's with matching targetname and teleport to the first available one in the edicts list so long as player is further away than the info_skullwiz_destination's .distance (default 192); else it will find a spot in a 512 radius that is: further than 192 from the player, 512 units below current position or less, within sight of last position, more than 256 away from current positon.  Setting bodyphased to 1 will cause them to start phased out (invisible), but will wake up on player sight.</t>
+  </si>
+  <si>
+    <t>Explosive Skull</t>
+  </si>
+  <si>
+    <t>Poisonous Explosive Skull</t>
+  </si>
+  <si>
+    <t>Minions</t>
+  </si>
+  <si>
+    <t>Lost Skull</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1092,14 +1113,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,6 +1143,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,14 +1161,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1176,12 +1200,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1193,15 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1679,35 +1703,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1716,16 +1740,16 @@
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1734,16 +1758,16 @@
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1752,16 +1776,16 @@
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1770,16 +1794,16 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1791,11 +1815,11 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1807,127 +1831,127 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
@@ -1945,101 +1969,101 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2049,95 +2073,95 @@
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="13"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -2152,18 +2176,18 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -2181,101 +2205,101 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47" t="s">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
     </row>
     <row r="43" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -2285,18 +2309,18 @@
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
@@ -2309,89 +2333,89 @@
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="13"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="13"/>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="33"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
@@ -2407,6 +2431,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="C20:E24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:J31"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="H44:J49"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A50:J50"/>
@@ -2423,36 +2477,6 @@
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F36:J36"/>
     <mergeCell ref="F37:J43"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="C20:E24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:J31"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2462,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:J284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283:C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,35 +2508,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="47" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2521,14 +2545,14 @@
       <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2537,14 +2561,14 @@
       <c r="B4" s="3">
         <v>3000</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2553,14 +2577,14 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2569,14 +2593,14 @@
       <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2588,123 +2612,123 @@
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="29">
         <v>1000</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="29">
         <v>1000</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="29">
         <v>1000</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="30">
         <v>1000</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
@@ -2722,35 +2746,35 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="47" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2759,14 +2783,14 @@
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2775,14 +2799,14 @@
       <c r="B18" s="3">
         <v>30</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2791,14 +2815,14 @@
       <c r="B19" s="3">
         <v>-35</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2807,14 +2831,14 @@
       <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2823,14 +2847,14 @@
       <c r="B21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -2841,50 +2865,50 @@
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2902,35 +2926,35 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="47" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2939,14 +2963,14 @@
       <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2955,14 +2979,14 @@
       <c r="B29" s="3">
         <v>60</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2971,14 +2995,14 @@
       <c r="B30" s="3">
         <v>-35</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2987,14 +3011,14 @@
       <c r="B31" s="5">
         <v>20</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3003,14 +3027,14 @@
       <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
     </row>
     <row r="33" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -3022,49 +3046,49 @@
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -3082,35 +3106,35 @@
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3119,14 +3143,14 @@
       <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3135,14 +3159,14 @@
       <c r="B40" s="3">
         <v>75</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3151,14 +3175,14 @@
       <c r="B41" s="3">
         <v>-35</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -3167,14 +3191,14 @@
       <c r="B42" s="5">
         <v>20</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -3183,14 +3207,14 @@
       <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -3202,83 +3226,83 @@
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="33"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3287,14 +3311,14 @@
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3303,14 +3327,14 @@
       <c r="B51" s="3">
         <v>45</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3319,14 +3343,14 @@
       <c r="B52" s="3">
         <v>-35</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -3335,14 +3359,14 @@
       <c r="B53" s="5">
         <v>20</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -3351,14 +3375,14 @@
       <c r="B54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
     </row>
     <row r="55" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
@@ -3370,81 +3394,81 @@
       <c r="C55" s="49"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="33"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47" t="s">
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3453,14 +3477,14 @@
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
     </row>
     <row r="62" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3469,14 +3493,14 @@
       <c r="B62" s="3">
         <v>300</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="40"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3485,14 +3509,14 @@
       <c r="B63" s="3">
         <v>-35</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
@@ -3501,14 +3525,14 @@
       <c r="B64" s="5">
         <v>40</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
     </row>
     <row r="65" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -3520,107 +3544,107 @@
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
       <c r="E65" s="49"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="40"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="67"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="62"/>
+      <c r="B68" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="33"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="67"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="40"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="33"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="40"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
     </row>
     <row r="70" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61"/>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="33"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="33"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
@@ -3638,35 +3662,35 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47" t="s">
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -3675,14 +3699,14 @@
       <c r="B76" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3691,14 +3715,14 @@
       <c r="B77" s="3">
         <v>3</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3707,14 +3731,14 @@
       <c r="B78" s="3">
         <v>0</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -3723,14 +3747,14 @@
       <c r="B79" s="5">
         <v>0</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -3742,18 +3766,18 @@
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
     </row>
     <row r="81" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
@@ -3766,61 +3790,61 @@
       <c r="G81" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="37"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="33"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="25" t="s">
         <v>78</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="47" t="s">
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3829,14 +3853,14 @@
       <c r="B86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3845,14 +3869,14 @@
       <c r="B87" s="3">
         <v>120</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -3861,14 +3885,14 @@
       <c r="B88" s="3">
         <v>-35</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="50"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -3877,14 +3901,14 @@
       <c r="B89" s="5">
         <v>60</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -3893,14 +3917,14 @@
       <c r="B90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
     </row>
     <row r="91" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
@@ -3912,18 +3936,18 @@
       <c r="C91" s="49"/>
       <c r="D91" s="49"/>
       <c r="E91" s="49"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="33"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
@@ -3936,61 +3960,61 @@
       <c r="G92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="35"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="37"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="35"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="33"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="43"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="41"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="47" t="s">
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -3999,14 +4023,14 @@
       <c r="B97" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4015,14 +4039,14 @@
       <c r="B98" s="3">
         <v>75</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4031,14 +4055,14 @@
       <c r="B99" s="3">
         <v>-25</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
@@ -4047,14 +4071,14 @@
       <c r="B100" s="5">
         <v>40</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
@@ -4066,18 +4090,18 @@
       <c r="C101" s="49"/>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="47"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="50"/>
     </row>
     <row r="102" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="33"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="7" t="s">
         <v>10</v>
       </c>
@@ -4090,79 +4114,79 @@
       <c r="G102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="35"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="37"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="35"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="33"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="40"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="38"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C104" s="33"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="43"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="41"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="47" t="s">
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="47"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4171,14 +4195,14 @@
       <c r="B108" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4187,14 +4211,14 @@
       <c r="B109" s="3">
         <v>200</v>
       </c>
-      <c r="C109" s="38"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4203,14 +4227,14 @@
       <c r="B110" s="3">
         <v>-50</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="47"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
@@ -4219,14 +4243,14 @@
       <c r="B111" s="5">
         <v>40</v>
       </c>
-      <c r="C111" s="38"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="47"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="50"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
@@ -4238,18 +4262,18 @@
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="33"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="7" t="s">
         <v>10</v>
       </c>
@@ -4262,111 +4286,111 @@
       <c r="G113" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="35"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="33"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="40"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="38"/>
     </row>
     <row r="115" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59" t="s">
+      <c r="A115" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="33"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="13" t="s">
         <v>103</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="40"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="38"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
-      <c r="B116" s="32" t="s">
+      <c r="A116" s="62"/>
+      <c r="B116" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="33"/>
+      <c r="C116" s="44"/>
       <c r="D116" s="13" t="s">
         <v>104</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="40"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="38"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="61"/>
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="33"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="43"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="47" t="s">
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="50"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="50"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="47"/>
-      <c r="I120" s="47"/>
-      <c r="J120" s="47"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="50"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -4375,14 +4399,14 @@
       <c r="B121" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -4391,14 +4415,14 @@
       <c r="B122" s="3">
         <v>400</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
-      <c r="I122" s="47"/>
-      <c r="J122" s="47"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="50"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -4407,14 +4431,14 @@
       <c r="B123" s="3">
         <v>-60</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
-      <c r="I123" s="47"/>
-      <c r="J123" s="47"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -4423,14 +4447,14 @@
       <c r="B124" s="5">
         <v>80</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="50"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="50"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
@@ -4442,18 +4466,18 @@
       <c r="C125" s="49"/>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="18"/>
-      <c r="B126" s="32" t="s">
+      <c r="B126" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="33"/>
+      <c r="C126" s="44"/>
       <c r="D126" s="7" t="s">
         <v>10</v>
       </c>
@@ -4466,79 +4490,79 @@
       <c r="G126" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="37"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="35"/>
     </row>
     <row r="127" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C127" s="33"/>
+      <c r="C127" s="44"/>
       <c r="D127" s="13" t="s">
         <v>112</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="40"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="38"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B128" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C128" s="33"/>
+      <c r="C128" s="44"/>
       <c r="D128" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="43"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="45" t="s">
+      <c r="B130" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="46"/>
-      <c r="F130" s="47" t="s">
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="47"/>
-      <c r="J130" s="47"/>
+      <c r="G130" s="50"/>
+      <c r="H130" s="50"/>
+      <c r="I130" s="50"/>
+      <c r="J130" s="50"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="45" t="s">
+      <c r="B131" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="47"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
+      <c r="H131" s="50"/>
+      <c r="I131" s="50"/>
+      <c r="J131" s="50"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4547,14 +4571,14 @@
       <c r="B132" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
-      <c r="I132" s="47"/>
-      <c r="J132" s="47"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="50"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -4563,14 +4587,14 @@
       <c r="B133" s="3">
         <v>100</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47"/>
-      <c r="J133" s="47"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="50"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -4579,14 +4603,14 @@
       <c r="B134" s="3">
         <v>-35</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="40"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="50"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
@@ -4595,14 +4619,14 @@
       <c r="B135" s="5">
         <v>20</v>
       </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="47"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="50"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -4611,14 +4635,14 @@
       <c r="B136" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="41"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
+      <c r="J136" s="50"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
@@ -4630,18 +4654,18 @@
       <c r="C137" s="49"/>
       <c r="D137" s="49"/>
       <c r="E137" s="49"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="50"/>
     </row>
     <row r="138" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C138" s="33"/>
+      <c r="C138" s="44"/>
       <c r="D138" s="7" t="s">
         <v>10</v>
       </c>
@@ -4654,77 +4678,77 @@
       <c r="G138" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="35"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="37"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="35"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="44" t="s">
+      <c r="A139" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="33"/>
+      <c r="C139" s="44"/>
       <c r="D139" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="40"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="38"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="32" t="s">
+      <c r="A140" s="45"/>
+      <c r="B140" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C140" s="33"/>
+      <c r="C140" s="44"/>
       <c r="D140" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="42"/>
-      <c r="J140" s="43"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="41"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="47" t="s">
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="50"/>
     </row>
     <row r="143" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="46"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
-      <c r="I143" s="47"/>
-      <c r="J143" s="47"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="50"/>
+      <c r="J143" s="50"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4733,14 +4757,14 @@
       <c r="B144" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="35"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
-      <c r="I144" s="47"/>
-      <c r="J144" s="47"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="50"/>
+      <c r="J144" s="50"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -4749,14 +4773,14 @@
       <c r="B145" s="3">
         <v>300</v>
       </c>
-      <c r="C145" s="38"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47"/>
-      <c r="I145" s="47"/>
-      <c r="J145" s="47"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="50"/>
+      <c r="H145" s="50"/>
+      <c r="I145" s="50"/>
+      <c r="J145" s="50"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -4765,14 +4789,14 @@
       <c r="B146" s="3">
         <v>-80</v>
       </c>
-      <c r="C146" s="38"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="47"/>
-      <c r="I146" s="47"/>
-      <c r="J146" s="47"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50"/>
+      <c r="I146" s="50"/>
+      <c r="J146" s="50"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -4781,14 +4805,14 @@
       <c r="B147" s="5">
         <v>200</v>
       </c>
-      <c r="C147" s="38"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="40"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="47"/>
-      <c r="J147" s="47"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
+      <c r="H147" s="50"/>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
@@ -4800,18 +4824,18 @@
       <c r="C148" s="49"/>
       <c r="D148" s="49"/>
       <c r="E148" s="49"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="47"/>
-      <c r="I148" s="47"/>
-      <c r="J148" s="47"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="50"/>
+      <c r="H148" s="50"/>
+      <c r="I148" s="50"/>
+      <c r="J148" s="50"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C149" s="33"/>
+      <c r="C149" s="44"/>
       <c r="D149" s="7" t="s">
         <v>10</v>
       </c>
@@ -4824,57 +4848,57 @@
       <c r="G149" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="35"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="37"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="35"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="59" t="s">
+      <c r="A150" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="33"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="13" t="s">
         <v>125</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="39"/>
-      <c r="J150" s="40"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="38"/>
     </row>
     <row r="151" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="61"/>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C151" s="33"/>
+      <c r="C151" s="44"/>
       <c r="D151" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="43"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="41"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="33"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="44"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
@@ -4892,35 +4916,35 @@
       <c r="A155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="45" t="s">
+      <c r="B155" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C155" s="45"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="46"/>
-      <c r="F155" s="47" t="s">
+      <c r="C155" s="46"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
-      <c r="J155" s="47"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="50"/>
+      <c r="I155" s="50"/>
+      <c r="J155" s="50"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="45" t="s">
+      <c r="B156" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="46"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="47"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
+      <c r="H156" s="50"/>
+      <c r="I156" s="50"/>
+      <c r="J156" s="50"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -4929,14 +4953,14 @@
       <c r="B157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C157" s="35"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="47"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="47"/>
-      <c r="J157" s="47"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="50"/>
+      <c r="I157" s="50"/>
+      <c r="J157" s="50"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -4945,14 +4969,14 @@
       <c r="B158" s="3">
         <v>400</v>
       </c>
-      <c r="C158" s="38"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="40"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
-      <c r="I158" s="47"/>
-      <c r="J158" s="47"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
+      <c r="H158" s="50"/>
+      <c r="I158" s="50"/>
+      <c r="J158" s="50"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -4961,14 +4985,14 @@
       <c r="B159" s="3">
         <v>-50</v>
       </c>
-      <c r="C159" s="38"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="40"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="47"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="50"/>
+      <c r="J159" s="50"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
@@ -4977,14 +5001,14 @@
       <c r="B160" s="5">
         <v>80</v>
       </c>
-      <c r="C160" s="38"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="40"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
-      <c r="I160" s="47"/>
-      <c r="J160" s="47"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="50"/>
+      <c r="H160" s="50"/>
+      <c r="I160" s="50"/>
+      <c r="J160" s="50"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
@@ -4996,18 +5020,18 @@
       <c r="C161" s="49"/>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="47"/>
-      <c r="I161" s="47"/>
-      <c r="J161" s="47"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="50"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="33"/>
+      <c r="C162" s="44"/>
       <c r="D162" s="7" t="s">
         <v>10</v>
       </c>
@@ -5020,161 +5044,161 @@
       <c r="G162" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="35"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="37"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="34"/>
+      <c r="J162" s="35"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="44" t="s">
+      <c r="A163" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C163" s="33"/>
+      <c r="C163" s="44"/>
       <c r="D163" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="39"/>
-      <c r="J163" s="40"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="38"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="32" t="s">
+      <c r="A164" s="45"/>
+      <c r="B164" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C164" s="33"/>
+      <c r="C164" s="44"/>
       <c r="D164" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="38"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="40"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="38"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="59" t="s">
+      <c r="A165" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C165" s="33"/>
+      <c r="C165" s="44"/>
       <c r="D165" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="39"/>
-      <c r="J165" s="40"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="38"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="60"/>
-      <c r="B166" s="32" t="s">
+      <c r="A166" s="62"/>
+      <c r="B166" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="33"/>
+      <c r="C166" s="44"/>
       <c r="D166" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="39"/>
-      <c r="J166" s="40"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="38"/>
     </row>
     <row r="167" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="60"/>
-      <c r="B167" s="32" t="s">
+      <c r="A167" s="62"/>
+      <c r="B167" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="33"/>
+      <c r="C167" s="44"/>
       <c r="D167" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="38"/>
-      <c r="I167" s="39"/>
-      <c r="J167" s="40"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="38"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="61"/>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C168" s="33"/>
+      <c r="C168" s="44"/>
       <c r="D168" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="38"/>
-      <c r="I168" s="39"/>
-      <c r="J168" s="40"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="38"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="33"/>
+      <c r="C169" s="44"/>
       <c r="D169" s="13" t="s">
         <v>142</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
-      <c r="H169" s="41"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="43"/>
+      <c r="H169" s="39"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="41"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B171" s="45" t="s">
+      <c r="B171" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C171" s="45"/>
-      <c r="D171" s="45"/>
-      <c r="E171" s="46"/>
-      <c r="F171" s="47" t="s">
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47"/>
-      <c r="I171" s="47"/>
-      <c r="J171" s="47"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C172" s="45"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="47"/>
-      <c r="I172" s="47"/>
-      <c r="J172" s="47"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="47"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -5183,14 +5207,14 @@
       <c r="B173" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="47"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="47"/>
-      <c r="I173" s="47"/>
-      <c r="J173" s="47"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="35"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
+      <c r="J173" s="50"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -5199,14 +5223,14 @@
       <c r="B174" s="3">
         <v>30</v>
       </c>
-      <c r="C174" s="38"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="47"/>
-      <c r="G174" s="47"/>
-      <c r="H174" s="47"/>
-      <c r="I174" s="47"/>
-      <c r="J174" s="47"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
+      <c r="J174" s="50"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -5215,14 +5239,14 @@
       <c r="B175" s="3">
         <v>-35</v>
       </c>
-      <c r="C175" s="38"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="47"/>
-      <c r="I175" s="47"/>
-      <c r="J175" s="47"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
+      <c r="J175" s="50"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
@@ -5231,14 +5255,14 @@
       <c r="B176" s="5">
         <v>20</v>
       </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="47"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="47"/>
-      <c r="I176" s="47"/>
-      <c r="J176" s="47"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="50"/>
+      <c r="H176" s="50"/>
+      <c r="I176" s="50"/>
+      <c r="J176" s="50"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
@@ -5250,18 +5274,18 @@
       <c r="C177" s="49"/>
       <c r="D177" s="49"/>
       <c r="E177" s="49"/>
-      <c r="F177" s="47"/>
-      <c r="G177" s="47"/>
-      <c r="H177" s="47"/>
-      <c r="I177" s="47"/>
-      <c r="J177" s="47"/>
+      <c r="F177" s="50"/>
+      <c r="G177" s="50"/>
+      <c r="H177" s="50"/>
+      <c r="I177" s="50"/>
+      <c r="J177" s="50"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="B178" s="32" t="s">
+      <c r="B178" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="33"/>
+      <c r="C178" s="44"/>
       <c r="D178" s="7" t="s">
         <v>10</v>
       </c>
@@ -5274,109 +5298,109 @@
       <c r="G178" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H178" s="35"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="37"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="34"/>
+      <c r="J178" s="35"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="59" t="s">
+      <c r="A179" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B179" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C179" s="33"/>
+      <c r="C179" s="44"/>
       <c r="D179" s="13" t="s">
         <v>145</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
-      <c r="H179" s="38"/>
-      <c r="I179" s="39"/>
-      <c r="J179" s="40"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="38"/>
     </row>
     <row r="180" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="60"/>
-      <c r="B180" s="32" t="s">
+      <c r="A180" s="62"/>
+      <c r="B180" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="C180" s="33"/>
+      <c r="C180" s="44"/>
       <c r="D180" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
-      <c r="H180" s="38"/>
-      <c r="I180" s="39"/>
-      <c r="J180" s="40"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="37"/>
+      <c r="J180" s="38"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="60"/>
-      <c r="B181" s="32" t="s">
+      <c r="A181" s="62"/>
+      <c r="B181" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C181" s="33"/>
+      <c r="C181" s="44"/>
       <c r="D181" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
-      <c r="H181" s="38"/>
-      <c r="I181" s="39"/>
-      <c r="J181" s="40"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="38"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="61"/>
-      <c r="B182" s="32" t="s">
+      <c r="B182" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C182" s="33"/>
+      <c r="C182" s="44"/>
       <c r="D182" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
-      <c r="H182" s="41"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="43"/>
+      <c r="H182" s="39"/>
+      <c r="I182" s="40"/>
+      <c r="J182" s="41"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B184" s="45" t="s">
+      <c r="B184" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C184" s="45"/>
-      <c r="D184" s="45"/>
-      <c r="E184" s="46"/>
-      <c r="F184" s="47" t="s">
+      <c r="C184" s="46"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G184" s="47"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="47"/>
-      <c r="J184" s="47"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="45" t="s">
+      <c r="B185" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C185" s="45"/>
-      <c r="D185" s="45"/>
-      <c r="E185" s="46"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="47"/>
-      <c r="I185" s="47"/>
-      <c r="J185" s="47"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="47"/>
+      <c r="F185" s="50"/>
+      <c r="G185" s="50"/>
+      <c r="H185" s="50"/>
+      <c r="I185" s="50"/>
+      <c r="J185" s="50"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -5385,14 +5409,14 @@
       <c r="B186" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C186" s="35"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="47"/>
-      <c r="G186" s="47"/>
-      <c r="H186" s="47"/>
-      <c r="I186" s="47"/>
-      <c r="J186" s="47"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -5401,14 +5425,14 @@
       <c r="B187" s="3">
         <v>250</v>
       </c>
-      <c r="C187" s="38"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="40"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="47"/>
-      <c r="H187" s="47"/>
-      <c r="I187" s="47"/>
-      <c r="J187" s="47"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="37"/>
+      <c r="E187" s="38"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
+      <c r="J187" s="50"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -5417,14 +5441,14 @@
       <c r="B188" s="3">
         <v>-40</v>
       </c>
-      <c r="C188" s="38"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="40"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="47"/>
-      <c r="H188" s="47"/>
-      <c r="I188" s="47"/>
-      <c r="J188" s="47"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="50"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -5433,14 +5457,14 @@
       <c r="B189" s="5">
         <v>40</v>
       </c>
-      <c r="C189" s="38"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="47"/>
-      <c r="H189" s="47"/>
-      <c r="I189" s="47"/>
-      <c r="J189" s="47"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
+      <c r="E189" s="38"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
+      <c r="J189" s="50"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
@@ -5452,18 +5476,18 @@
       <c r="C190" s="49"/>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="47"/>
-      <c r="H190" s="47"/>
-      <c r="I190" s="47"/>
-      <c r="J190" s="47"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
+      <c r="J190" s="50"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="33"/>
+      <c r="C191" s="44"/>
       <c r="D191" s="7" t="s">
         <v>10</v>
       </c>
@@ -5476,143 +5500,143 @@
       <c r="G191" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H191" s="35"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="37"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="34"/>
+      <c r="J191" s="35"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C192" s="33"/>
+      <c r="C192" s="44"/>
       <c r="D192" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
-      <c r="H192" s="38"/>
-      <c r="I192" s="39"/>
-      <c r="J192" s="40"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="38"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="59" t="s">
+      <c r="A193" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="69" t="s">
+      <c r="B193" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C193" s="70"/>
+      <c r="C193" s="64"/>
       <c r="D193" s="13" t="s">
         <v>157</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
-      <c r="H193" s="38"/>
-      <c r="I193" s="39"/>
-      <c r="J193" s="40"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="37"/>
+      <c r="J193" s="38"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="60"/>
-      <c r="B194" s="69" t="s">
+      <c r="A194" s="62"/>
+      <c r="B194" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C194" s="70"/>
+      <c r="C194" s="64"/>
       <c r="D194" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
-      <c r="H194" s="38"/>
-      <c r="I194" s="39"/>
-      <c r="J194" s="40"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="37"/>
+      <c r="J194" s="38"/>
     </row>
     <row r="195" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="60"/>
-      <c r="B195" s="32" t="s">
+      <c r="A195" s="62"/>
+      <c r="B195" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C195" s="33"/>
+      <c r="C195" s="44"/>
       <c r="D195" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
-      <c r="H195" s="38"/>
-      <c r="I195" s="39"/>
-      <c r="J195" s="40"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="37"/>
+      <c r="J195" s="38"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="60"/>
-      <c r="B196" s="32" t="s">
+      <c r="A196" s="62"/>
+      <c r="B196" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C196" s="33"/>
+      <c r="C196" s="44"/>
       <c r="D196" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
-      <c r="H196" s="38"/>
-      <c r="I196" s="39"/>
-      <c r="J196" s="40"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="37"/>
+      <c r="J196" s="38"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="61"/>
-      <c r="B197" s="32" t="s">
+      <c r="B197" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C197" s="33"/>
+      <c r="C197" s="44"/>
       <c r="D197" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
-      <c r="H197" s="41"/>
-      <c r="I197" s="42"/>
-      <c r="J197" s="43"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="40"/>
+      <c r="J197" s="41"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="45" t="s">
+      <c r="B199" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C199" s="45"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="47" t="s">
+      <c r="C199" s="46"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="47"/>
+      <c r="F199" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G199" s="47"/>
-      <c r="H199" s="47"/>
-      <c r="I199" s="47"/>
-      <c r="J199" s="47"/>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50"/>
+      <c r="I199" s="50"/>
+      <c r="J199" s="50"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="45" t="s">
+      <c r="B200" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C200" s="45"/>
-      <c r="D200" s="45"/>
-      <c r="E200" s="46"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="47"/>
-      <c r="I200" s="47"/>
-      <c r="J200" s="47"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="47"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50"/>
+      <c r="I200" s="50"/>
+      <c r="J200" s="50"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -5621,14 +5645,14 @@
       <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="35"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="47"/>
-      <c r="H201" s="47"/>
-      <c r="I201" s="47"/>
-      <c r="J201" s="47"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="35"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="50"/>
+      <c r="J201" s="50"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -5637,14 +5661,14 @@
       <c r="B202" s="3">
         <v>25</v>
       </c>
-      <c r="C202" s="38"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="47"/>
-      <c r="I202" s="47"/>
-      <c r="J202" s="47"/>
+      <c r="C202" s="36"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="38"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="50"/>
+      <c r="J202" s="50"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -5653,14 +5677,14 @@
       <c r="B203" s="3">
         <v>-35</v>
       </c>
-      <c r="C203" s="38"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="47"/>
-      <c r="G203" s="47"/>
-      <c r="H203" s="47"/>
-      <c r="I203" s="47"/>
-      <c r="J203" s="47"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="38"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="50"/>
+      <c r="H203" s="50"/>
+      <c r="I203" s="50"/>
+      <c r="J203" s="50"/>
     </row>
     <row r="204" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -5669,14 +5693,14 @@
       <c r="B204" s="5">
         <v>10</v>
       </c>
-      <c r="C204" s="38"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="47"/>
-      <c r="G204" s="47"/>
-      <c r="H204" s="47"/>
-      <c r="I204" s="47"/>
-      <c r="J204" s="47"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
+      <c r="E204" s="38"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="50"/>
+      <c r="J204" s="50"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
@@ -5688,18 +5712,18 @@
       <c r="C205" s="49"/>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
-      <c r="F205" s="47"/>
-      <c r="G205" s="47"/>
-      <c r="H205" s="47"/>
-      <c r="I205" s="47"/>
-      <c r="J205" s="47"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
+      <c r="J205" s="50"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
-      <c r="B206" s="32" t="s">
+      <c r="B206" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C206" s="33"/>
+      <c r="C206" s="44"/>
       <c r="D206" s="7" t="s">
         <v>10</v>
       </c>
@@ -5712,77 +5736,77 @@
       <c r="G206" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H206" s="35"/>
-      <c r="I206" s="36"/>
-      <c r="J206" s="37"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="35"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="59" t="s">
+      <c r="A207" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B207" s="32" t="s">
+      <c r="B207" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C207" s="33"/>
+      <c r="C207" s="44"/>
       <c r="D207" s="10" t="s">
         <v>165</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
-      <c r="H207" s="38"/>
-      <c r="I207" s="39"/>
-      <c r="J207" s="40"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="37"/>
+      <c r="J207" s="38"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="61"/>
-      <c r="B208" s="32" t="s">
+      <c r="B208" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C208" s="33"/>
+      <c r="C208" s="44"/>
       <c r="D208" s="10" t="s">
         <v>167</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
-      <c r="H208" s="41"/>
-      <c r="I208" s="42"/>
-      <c r="J208" s="43"/>
+      <c r="H208" s="39"/>
+      <c r="I208" s="40"/>
+      <c r="J208" s="41"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="45" t="s">
+      <c r="B210" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C210" s="45"/>
-      <c r="D210" s="45"/>
-      <c r="E210" s="46"/>
-      <c r="F210" s="47" t="s">
+      <c r="C210" s="46"/>
+      <c r="D210" s="46"/>
+      <c r="E210" s="47"/>
+      <c r="F210" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G210" s="47"/>
-      <c r="H210" s="47"/>
-      <c r="I210" s="47"/>
-      <c r="J210" s="47"/>
+      <c r="G210" s="50"/>
+      <c r="H210" s="50"/>
+      <c r="I210" s="50"/>
+      <c r="J210" s="50"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B211" s="45" t="s">
+      <c r="B211" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C211" s="45"/>
-      <c r="D211" s="45"/>
-      <c r="E211" s="46"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="47"/>
-      <c r="H211" s="47"/>
-      <c r="I211" s="47"/>
-      <c r="J211" s="47"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="50"/>
+      <c r="G211" s="50"/>
+      <c r="H211" s="50"/>
+      <c r="I211" s="50"/>
+      <c r="J211" s="50"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -5791,14 +5815,14 @@
       <c r="B212" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C212" s="35"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="37"/>
-      <c r="F212" s="47"/>
-      <c r="G212" s="47"/>
-      <c r="H212" s="47"/>
-      <c r="I212" s="47"/>
-      <c r="J212" s="47"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="35"/>
+      <c r="F212" s="50"/>
+      <c r="G212" s="50"/>
+      <c r="H212" s="50"/>
+      <c r="I212" s="50"/>
+      <c r="J212" s="50"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -5807,14 +5831,14 @@
       <c r="B213" s="3">
         <v>4000</v>
       </c>
-      <c r="C213" s="38"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="40"/>
-      <c r="F213" s="47"/>
-      <c r="G213" s="47"/>
-      <c r="H213" s="47"/>
-      <c r="I213" s="47"/>
-      <c r="J213" s="47"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="38"/>
+      <c r="F213" s="50"/>
+      <c r="G213" s="50"/>
+      <c r="H213" s="50"/>
+      <c r="I213" s="50"/>
+      <c r="J213" s="50"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
@@ -5826,18 +5850,18 @@
       <c r="C214" s="49"/>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
-      <c r="F214" s="47"/>
-      <c r="G214" s="47"/>
-      <c r="H214" s="47"/>
-      <c r="I214" s="47"/>
-      <c r="J214" s="47"/>
+      <c r="F214" s="50"/>
+      <c r="G214" s="50"/>
+      <c r="H214" s="50"/>
+      <c r="I214" s="50"/>
+      <c r="J214" s="50"/>
     </row>
     <row r="215" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
-      <c r="B215" s="32" t="s">
+      <c r="B215" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C215" s="33"/>
+      <c r="C215" s="44"/>
       <c r="D215" s="7" t="s">
         <v>10</v>
       </c>
@@ -5850,79 +5874,79 @@
       <c r="G215" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H215" s="35"/>
-      <c r="I215" s="36"/>
-      <c r="J215" s="37"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="34"/>
+      <c r="J215" s="35"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C216" s="33"/>
+      <c r="C216" s="44"/>
       <c r="D216" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
-      <c r="H216" s="38"/>
-      <c r="I216" s="39"/>
-      <c r="J216" s="40"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="37"/>
+      <c r="J216" s="38"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C217" s="33"/>
+      <c r="C217" s="44"/>
       <c r="D217" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
-      <c r="H217" s="41"/>
-      <c r="I217" s="42"/>
-      <c r="J217" s="43"/>
+      <c r="H217" s="39"/>
+      <c r="I217" s="40"/>
+      <c r="J217" s="41"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B219" s="45" t="s">
+      <c r="B219" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C219" s="45"/>
-      <c r="D219" s="45"/>
-      <c r="E219" s="46"/>
-      <c r="F219" s="47" t="s">
+      <c r="C219" s="46"/>
+      <c r="D219" s="46"/>
+      <c r="E219" s="47"/>
+      <c r="F219" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G219" s="47"/>
-      <c r="H219" s="47"/>
-      <c r="I219" s="47"/>
-      <c r="J219" s="47"/>
+      <c r="G219" s="50"/>
+      <c r="H219" s="50"/>
+      <c r="I219" s="50"/>
+      <c r="J219" s="50"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B220" s="45" t="s">
+      <c r="B220" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C220" s="45"/>
-      <c r="D220" s="45"/>
-      <c r="E220" s="46"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="47"/>
-      <c r="H220" s="47"/>
-      <c r="I220" s="47"/>
-      <c r="J220" s="47"/>
+      <c r="C220" s="46"/>
+      <c r="D220" s="46"/>
+      <c r="E220" s="47"/>
+      <c r="F220" s="50"/>
+      <c r="G220" s="50"/>
+      <c r="H220" s="50"/>
+      <c r="I220" s="50"/>
+      <c r="J220" s="50"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -5931,14 +5955,14 @@
       <c r="B221" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C221" s="35"/>
-      <c r="D221" s="36"/>
-      <c r="E221" s="37"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-      <c r="H221" s="47"/>
-      <c r="I221" s="47"/>
-      <c r="J221" s="47"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="50"/>
+      <c r="G221" s="50"/>
+      <c r="H221" s="50"/>
+      <c r="I221" s="50"/>
+      <c r="J221" s="50"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -5947,14 +5971,14 @@
       <c r="B222" s="3">
         <v>500</v>
       </c>
-      <c r="C222" s="38"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="40"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="47"/>
-      <c r="H222" s="47"/>
-      <c r="I222" s="47"/>
-      <c r="J222" s="47"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="50"/>
+      <c r="G222" s="50"/>
+      <c r="H222" s="50"/>
+      <c r="I222" s="50"/>
+      <c r="J222" s="50"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -5963,14 +5987,14 @@
       <c r="B223" s="3">
         <v>-60</v>
       </c>
-      <c r="C223" s="38"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="47"/>
-      <c r="G223" s="47"/>
-      <c r="H223" s="47"/>
-      <c r="I223" s="47"/>
-      <c r="J223" s="47"/>
+      <c r="C223" s="36"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="38"/>
+      <c r="F223" s="50"/>
+      <c r="G223" s="50"/>
+      <c r="H223" s="50"/>
+      <c r="I223" s="50"/>
+      <c r="J223" s="50"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
@@ -5979,14 +6003,14 @@
       <c r="B224" s="5">
         <v>200</v>
       </c>
-      <c r="C224" s="38"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="40"/>
-      <c r="F224" s="47"/>
-      <c r="G224" s="47"/>
-      <c r="H224" s="47"/>
-      <c r="I224" s="47"/>
-      <c r="J224" s="47"/>
+      <c r="C224" s="36"/>
+      <c r="D224" s="37"/>
+      <c r="E224" s="38"/>
+      <c r="F224" s="50"/>
+      <c r="G224" s="50"/>
+      <c r="H224" s="50"/>
+      <c r="I224" s="50"/>
+      <c r="J224" s="50"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
@@ -5998,18 +6022,18 @@
       <c r="C225" s="49"/>
       <c r="D225" s="49"/>
       <c r="E225" s="49"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="47"/>
-      <c r="H225" s="47"/>
-      <c r="I225" s="47"/>
-      <c r="J225" s="47"/>
+      <c r="F225" s="50"/>
+      <c r="G225" s="50"/>
+      <c r="H225" s="50"/>
+      <c r="I225" s="50"/>
+      <c r="J225" s="50"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
-      <c r="B226" s="32" t="s">
+      <c r="B226" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C226" s="33"/>
+      <c r="C226" s="44"/>
       <c r="D226" s="7" t="s">
         <v>10</v>
       </c>
@@ -6022,95 +6046,95 @@
       <c r="G226" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="35"/>
-      <c r="I226" s="36"/>
-      <c r="J226" s="37"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="34"/>
+      <c r="J226" s="35"/>
     </row>
     <row r="227" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B227" s="32" t="s">
+      <c r="B227" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="C227" s="33"/>
+      <c r="C227" s="44"/>
       <c r="D227" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
-      <c r="H227" s="38"/>
-      <c r="I227" s="39"/>
-      <c r="J227" s="40"/>
+      <c r="H227" s="36"/>
+      <c r="I227" s="37"/>
+      <c r="J227" s="38"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="59" t="s">
+      <c r="A228" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B228" s="32" t="s">
+      <c r="B228" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="C228" s="33"/>
+      <c r="C228" s="44"/>
       <c r="D228" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
-      <c r="H228" s="38"/>
-      <c r="I228" s="39"/>
-      <c r="J228" s="40"/>
+      <c r="H228" s="36"/>
+      <c r="I228" s="37"/>
+      <c r="J228" s="38"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="61"/>
-      <c r="B229" s="32" t="s">
+      <c r="B229" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C229" s="33"/>
+      <c r="C229" s="44"/>
       <c r="D229" s="13" t="s">
         <v>183</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
-      <c r="H229" s="41"/>
-      <c r="I229" s="42"/>
-      <c r="J229" s="43"/>
+      <c r="H229" s="39"/>
+      <c r="I229" s="40"/>
+      <c r="J229" s="41"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="45" t="s">
+      <c r="B231" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="C231" s="45"/>
-      <c r="D231" s="45"/>
-      <c r="E231" s="46"/>
-      <c r="F231" s="47" t="s">
+      <c r="C231" s="46"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="47"/>
+      <c r="F231" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G231" s="47"/>
-      <c r="H231" s="47"/>
-      <c r="I231" s="47"/>
-      <c r="J231" s="47"/>
+      <c r="G231" s="50"/>
+      <c r="H231" s="50"/>
+      <c r="I231" s="50"/>
+      <c r="J231" s="50"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="45" t="s">
+      <c r="B232" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C232" s="45"/>
-      <c r="D232" s="45"/>
-      <c r="E232" s="46"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="47"/>
-      <c r="H232" s="47"/>
-      <c r="I232" s="47"/>
-      <c r="J232" s="47"/>
+      <c r="C232" s="46"/>
+      <c r="D232" s="46"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="50"/>
+      <c r="G232" s="50"/>
+      <c r="H232" s="50"/>
+      <c r="I232" s="50"/>
+      <c r="J232" s="50"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -6119,14 +6143,14 @@
       <c r="B233" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C233" s="35"/>
-      <c r="D233" s="36"/>
-      <c r="E233" s="37"/>
-      <c r="F233" s="47"/>
-      <c r="G233" s="47"/>
-      <c r="H233" s="47"/>
-      <c r="I233" s="47"/>
-      <c r="J233" s="47"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="34"/>
+      <c r="E233" s="35"/>
+      <c r="F233" s="50"/>
+      <c r="G233" s="50"/>
+      <c r="H233" s="50"/>
+      <c r="I233" s="50"/>
+      <c r="J233" s="50"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -6135,14 +6159,14 @@
       <c r="B234" s="3">
         <v>400</v>
       </c>
-      <c r="C234" s="38"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="47"/>
-      <c r="G234" s="47"/>
-      <c r="H234" s="47"/>
-      <c r="I234" s="47"/>
-      <c r="J234" s="47"/>
+      <c r="C234" s="36"/>
+      <c r="D234" s="37"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="50"/>
+      <c r="G234" s="50"/>
+      <c r="H234" s="50"/>
+      <c r="I234" s="50"/>
+      <c r="J234" s="50"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -6151,14 +6175,14 @@
       <c r="B235" s="3">
         <v>-60</v>
       </c>
-      <c r="C235" s="38"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="40"/>
-      <c r="F235" s="47"/>
-      <c r="G235" s="47"/>
-      <c r="H235" s="47"/>
-      <c r="I235" s="47"/>
-      <c r="J235" s="47"/>
+      <c r="C235" s="36"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="38"/>
+      <c r="F235" s="50"/>
+      <c r="G235" s="50"/>
+      <c r="H235" s="50"/>
+      <c r="I235" s="50"/>
+      <c r="J235" s="50"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
@@ -6167,14 +6191,14 @@
       <c r="B236" s="5">
         <v>80</v>
       </c>
-      <c r="C236" s="38"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="40"/>
-      <c r="F236" s="47"/>
-      <c r="G236" s="47"/>
-      <c r="H236" s="47"/>
-      <c r="I236" s="47"/>
-      <c r="J236" s="47"/>
+      <c r="C236" s="36"/>
+      <c r="D236" s="37"/>
+      <c r="E236" s="38"/>
+      <c r="F236" s="50"/>
+      <c r="G236" s="50"/>
+      <c r="H236" s="50"/>
+      <c r="I236" s="50"/>
+      <c r="J236" s="50"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
@@ -6186,18 +6210,18 @@
       <c r="C237" s="49"/>
       <c r="D237" s="49"/>
       <c r="E237" s="49"/>
-      <c r="F237" s="47"/>
-      <c r="G237" s="47"/>
-      <c r="H237" s="47"/>
-      <c r="I237" s="47"/>
-      <c r="J237" s="47"/>
+      <c r="F237" s="50"/>
+      <c r="G237" s="50"/>
+      <c r="H237" s="50"/>
+      <c r="I237" s="50"/>
+      <c r="J237" s="50"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
-      <c r="B238" s="32" t="s">
+      <c r="B238" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C238" s="33"/>
+      <c r="C238" s="44"/>
       <c r="D238" s="7" t="s">
         <v>10</v>
       </c>
@@ -6210,111 +6234,111 @@
       <c r="G238" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="35"/>
-      <c r="I238" s="36"/>
-      <c r="J238" s="37"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="34"/>
+      <c r="J238" s="35"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B239" s="32" t="s">
+      <c r="B239" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C239" s="33"/>
+      <c r="C239" s="44"/>
       <c r="D239" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
-      <c r="H239" s="38"/>
-      <c r="I239" s="39"/>
-      <c r="J239" s="40"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="37"/>
+      <c r="J239" s="38"/>
     </row>
     <row r="240" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="60" t="s">
+      <c r="A240" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B240" s="32" t="s">
+      <c r="B240" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="C240" s="33"/>
+      <c r="C240" s="44"/>
       <c r="D240" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
-      <c r="H240" s="38"/>
-      <c r="I240" s="39"/>
-      <c r="J240" s="40"/>
+      <c r="H240" s="36"/>
+      <c r="I240" s="37"/>
+      <c r="J240" s="38"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="60"/>
-      <c r="B241" s="32" t="s">
+      <c r="A241" s="62"/>
+      <c r="B241" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C241" s="33"/>
+      <c r="C241" s="44"/>
       <c r="D241" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
-      <c r="H241" s="38"/>
-      <c r="I241" s="39"/>
-      <c r="J241" s="40"/>
+      <c r="H241" s="36"/>
+      <c r="I241" s="37"/>
+      <c r="J241" s="38"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="61"/>
-      <c r="B242" s="32" t="s">
+      <c r="B242" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C242" s="33"/>
+      <c r="C242" s="44"/>
       <c r="D242" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
-      <c r="H242" s="41"/>
-      <c r="I242" s="42"/>
-      <c r="J242" s="43"/>
+      <c r="H242" s="39"/>
+      <c r="I242" s="40"/>
+      <c r="J242" s="41"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B244" s="45" t="s">
+      <c r="B244" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C244" s="45"/>
-      <c r="D244" s="45"/>
-      <c r="E244" s="46"/>
-      <c r="F244" s="47" t="s">
+      <c r="C244" s="46"/>
+      <c r="D244" s="46"/>
+      <c r="E244" s="47"/>
+      <c r="F244" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G244" s="47"/>
-      <c r="H244" s="47"/>
-      <c r="I244" s="47"/>
-      <c r="J244" s="47"/>
+      <c r="G244" s="50"/>
+      <c r="H244" s="50"/>
+      <c r="I244" s="50"/>
+      <c r="J244" s="50"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="45" t="s">
+      <c r="B245" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="C245" s="45"/>
-      <c r="D245" s="45"/>
-      <c r="E245" s="46"/>
-      <c r="F245" s="47"/>
-      <c r="G245" s="47"/>
-      <c r="H245" s="47"/>
-      <c r="I245" s="47"/>
-      <c r="J245" s="47"/>
+      <c r="C245" s="46"/>
+      <c r="D245" s="46"/>
+      <c r="E245" s="47"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="50"/>
+      <c r="H245" s="50"/>
+      <c r="I245" s="50"/>
+      <c r="J245" s="50"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
@@ -6323,14 +6347,14 @@
       <c r="B246" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C246" s="35"/>
-      <c r="D246" s="36"/>
-      <c r="E246" s="37"/>
-      <c r="F246" s="47"/>
-      <c r="G246" s="47"/>
-      <c r="H246" s="47"/>
-      <c r="I246" s="47"/>
-      <c r="J246" s="47"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="35"/>
+      <c r="F246" s="50"/>
+      <c r="G246" s="50"/>
+      <c r="H246" s="50"/>
+      <c r="I246" s="50"/>
+      <c r="J246" s="50"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -6339,14 +6363,14 @@
       <c r="B247" s="3">
         <v>60</v>
       </c>
-      <c r="C247" s="38"/>
-      <c r="D247" s="39"/>
-      <c r="E247" s="40"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="47"/>
-      <c r="H247" s="47"/>
-      <c r="I247" s="47"/>
-      <c r="J247" s="47"/>
+      <c r="C247" s="36"/>
+      <c r="D247" s="37"/>
+      <c r="E247" s="38"/>
+      <c r="F247" s="50"/>
+      <c r="G247" s="50"/>
+      <c r="H247" s="50"/>
+      <c r="I247" s="50"/>
+      <c r="J247" s="50"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
@@ -6355,14 +6379,14 @@
       <c r="B248" s="3">
         <v>-25</v>
       </c>
-      <c r="C248" s="38"/>
-      <c r="D248" s="39"/>
-      <c r="E248" s="40"/>
-      <c r="F248" s="47"/>
-      <c r="G248" s="47"/>
-      <c r="H248" s="47"/>
-      <c r="I248" s="47"/>
-      <c r="J248" s="47"/>
+      <c r="C248" s="36"/>
+      <c r="D248" s="37"/>
+      <c r="E248" s="38"/>
+      <c r="F248" s="50"/>
+      <c r="G248" s="50"/>
+      <c r="H248" s="50"/>
+      <c r="I248" s="50"/>
+      <c r="J248" s="50"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
@@ -6371,14 +6395,14 @@
       <c r="B249" s="5">
         <v>10</v>
       </c>
-      <c r="C249" s="38"/>
-      <c r="D249" s="39"/>
-      <c r="E249" s="40"/>
-      <c r="F249" s="47"/>
-      <c r="G249" s="47"/>
-      <c r="H249" s="47"/>
-      <c r="I249" s="47"/>
-      <c r="J249" s="47"/>
+      <c r="C249" s="36"/>
+      <c r="D249" s="37"/>
+      <c r="E249" s="38"/>
+      <c r="F249" s="50"/>
+      <c r="G249" s="50"/>
+      <c r="H249" s="50"/>
+      <c r="I249" s="50"/>
+      <c r="J249" s="50"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
@@ -6390,18 +6414,18 @@
       <c r="C250" s="49"/>
       <c r="D250" s="49"/>
       <c r="E250" s="49"/>
-      <c r="F250" s="47"/>
-      <c r="G250" s="47"/>
-      <c r="H250" s="47"/>
-      <c r="I250" s="47"/>
-      <c r="J250" s="47"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="50"/>
+      <c r="H250" s="50"/>
+      <c r="I250" s="50"/>
+      <c r="J250" s="50"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
-      <c r="B251" s="32" t="s">
+      <c r="B251" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C251" s="33"/>
+      <c r="C251" s="44"/>
       <c r="D251" s="7" t="s">
         <v>10</v>
       </c>
@@ -6414,79 +6438,79 @@
       <c r="G251" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H251" s="35"/>
-      <c r="I251" s="36"/>
-      <c r="J251" s="37"/>
+      <c r="H251" s="33"/>
+      <c r="I251" s="34"/>
+      <c r="J251" s="35"/>
     </row>
     <row r="252" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B252" s="32" t="s">
+      <c r="B252" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C252" s="33"/>
+      <c r="C252" s="44"/>
       <c r="D252" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
-      <c r="H252" s="38"/>
-      <c r="I252" s="39"/>
-      <c r="J252" s="40"/>
+      <c r="H252" s="36"/>
+      <c r="I252" s="37"/>
+      <c r="J252" s="38"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B253" s="32" t="s">
+      <c r="B253" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C253" s="33"/>
+      <c r="C253" s="44"/>
       <c r="D253" s="13" t="s">
         <v>199</v>
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
-      <c r="H253" s="41"/>
-      <c r="I253" s="42"/>
-      <c r="J253" s="43"/>
+      <c r="H253" s="39"/>
+      <c r="I253" s="40"/>
+      <c r="J253" s="41"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B255" s="45" t="s">
+      <c r="B255" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C255" s="45"/>
-      <c r="D255" s="45"/>
-      <c r="E255" s="46"/>
-      <c r="F255" s="47" t="s">
+      <c r="C255" s="46"/>
+      <c r="D255" s="46"/>
+      <c r="E255" s="47"/>
+      <c r="F255" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G255" s="47"/>
-      <c r="H255" s="47"/>
-      <c r="I255" s="47"/>
-      <c r="J255" s="47"/>
+      <c r="G255" s="50"/>
+      <c r="H255" s="50"/>
+      <c r="I255" s="50"/>
+      <c r="J255" s="50"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B256" s="45" t="s">
+      <c r="B256" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="C256" s="45"/>
-      <c r="D256" s="45"/>
-      <c r="E256" s="46"/>
-      <c r="F256" s="47"/>
-      <c r="G256" s="47"/>
-      <c r="H256" s="47"/>
-      <c r="I256" s="47"/>
-      <c r="J256" s="47"/>
+      <c r="C256" s="46"/>
+      <c r="D256" s="46"/>
+      <c r="E256" s="47"/>
+      <c r="F256" s="50"/>
+      <c r="G256" s="50"/>
+      <c r="H256" s="50"/>
+      <c r="I256" s="50"/>
+      <c r="J256" s="50"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -6495,14 +6519,14 @@
       <c r="B257" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C257" s="35"/>
-      <c r="D257" s="36"/>
-      <c r="E257" s="37"/>
-      <c r="F257" s="47"/>
-      <c r="G257" s="47"/>
-      <c r="H257" s="47"/>
-      <c r="I257" s="47"/>
-      <c r="J257" s="47"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="35"/>
+      <c r="F257" s="50"/>
+      <c r="G257" s="50"/>
+      <c r="H257" s="50"/>
+      <c r="I257" s="50"/>
+      <c r="J257" s="50"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
@@ -6511,14 +6535,14 @@
       <c r="B258" s="3">
         <v>120</v>
       </c>
-      <c r="C258" s="38"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="47"/>
-      <c r="G258" s="47"/>
-      <c r="H258" s="47"/>
-      <c r="I258" s="47"/>
-      <c r="J258" s="47"/>
+      <c r="C258" s="36"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="38"/>
+      <c r="F258" s="50"/>
+      <c r="G258" s="50"/>
+      <c r="H258" s="50"/>
+      <c r="I258" s="50"/>
+      <c r="J258" s="50"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -6527,14 +6551,14 @@
       <c r="B259" s="3">
         <v>-35</v>
       </c>
-      <c r="C259" s="38"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="40"/>
-      <c r="F259" s="47"/>
-      <c r="G259" s="47"/>
-      <c r="H259" s="47"/>
-      <c r="I259" s="47"/>
-      <c r="J259" s="47"/>
+      <c r="C259" s="36"/>
+      <c r="D259" s="37"/>
+      <c r="E259" s="38"/>
+      <c r="F259" s="50"/>
+      <c r="G259" s="50"/>
+      <c r="H259" s="50"/>
+      <c r="I259" s="50"/>
+      <c r="J259" s="50"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
@@ -6543,14 +6567,14 @@
       <c r="B260" s="5">
         <v>20</v>
       </c>
-      <c r="C260" s="38"/>
-      <c r="D260" s="39"/>
-      <c r="E260" s="40"/>
-      <c r="F260" s="47"/>
-      <c r="G260" s="47"/>
-      <c r="H260" s="47"/>
-      <c r="I260" s="47"/>
-      <c r="J260" s="47"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="38"/>
+      <c r="F260" s="50"/>
+      <c r="G260" s="50"/>
+      <c r="H260" s="50"/>
+      <c r="I260" s="50"/>
+      <c r="J260" s="50"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
@@ -6559,14 +6583,14 @@
       <c r="B261" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C261" s="41"/>
-      <c r="D261" s="42"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="47"/>
-      <c r="G261" s="47"/>
-      <c r="H261" s="47"/>
-      <c r="I261" s="47"/>
-      <c r="J261" s="47"/>
+      <c r="C261" s="39"/>
+      <c r="D261" s="40"/>
+      <c r="E261" s="41"/>
+      <c r="F261" s="50"/>
+      <c r="G261" s="50"/>
+      <c r="H261" s="50"/>
+      <c r="I261" s="50"/>
+      <c r="J261" s="50"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
@@ -6578,18 +6602,18 @@
       <c r="C262" s="49"/>
       <c r="D262" s="49"/>
       <c r="E262" s="49"/>
-      <c r="F262" s="47"/>
-      <c r="G262" s="47"/>
-      <c r="H262" s="47"/>
-      <c r="I262" s="47"/>
-      <c r="J262" s="47"/>
+      <c r="F262" s="50"/>
+      <c r="G262" s="50"/>
+      <c r="H262" s="50"/>
+      <c r="I262" s="50"/>
+      <c r="J262" s="50"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C263" s="33"/>
+      <c r="C263" s="44"/>
       <c r="D263" s="7" t="s">
         <v>10</v>
       </c>
@@ -6602,61 +6626,61 @@
       <c r="G263" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H263" s="35"/>
-      <c r="I263" s="36"/>
-      <c r="J263" s="37"/>
+      <c r="H263" s="33"/>
+      <c r="I263" s="34"/>
+      <c r="J263" s="35"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="B264" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C264" s="33"/>
+      <c r="C264" s="44"/>
       <c r="D264" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
-      <c r="H264" s="41"/>
-      <c r="I264" s="42"/>
-      <c r="J264" s="43"/>
+      <c r="H264" s="39"/>
+      <c r="I264" s="40"/>
+      <c r="J264" s="41"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B266" s="45" t="s">
+      <c r="B266" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C266" s="45"/>
-      <c r="D266" s="45"/>
-      <c r="E266" s="46"/>
-      <c r="F266" s="47" t="s">
+      <c r="C266" s="46"/>
+      <c r="D266" s="46"/>
+      <c r="E266" s="47"/>
+      <c r="F266" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G266" s="47"/>
-      <c r="H266" s="47"/>
-      <c r="I266" s="47"/>
-      <c r="J266" s="47"/>
+      <c r="G266" s="50"/>
+      <c r="H266" s="50"/>
+      <c r="I266" s="50"/>
+      <c r="J266" s="50"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B267" s="45" t="s">
+      <c r="B267" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="C267" s="45"/>
-      <c r="D267" s="45"/>
-      <c r="E267" s="46"/>
-      <c r="F267" s="47"/>
-      <c r="G267" s="47"/>
-      <c r="H267" s="47"/>
-      <c r="I267" s="47"/>
-      <c r="J267" s="47"/>
+      <c r="C267" s="46"/>
+      <c r="D267" s="46"/>
+      <c r="E267" s="47"/>
+      <c r="F267" s="50"/>
+      <c r="G267" s="50"/>
+      <c r="H267" s="50"/>
+      <c r="I267" s="50"/>
+      <c r="J267" s="50"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -6665,14 +6689,14 @@
       <c r="B268" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C268" s="35"/>
-      <c r="D268" s="36"/>
-      <c r="E268" s="37"/>
-      <c r="F268" s="47"/>
-      <c r="G268" s="47"/>
-      <c r="H268" s="47"/>
-      <c r="I268" s="47"/>
-      <c r="J268" s="47"/>
+      <c r="C268" s="33"/>
+      <c r="D268" s="34"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="50"/>
+      <c r="G268" s="50"/>
+      <c r="H268" s="50"/>
+      <c r="I268" s="50"/>
+      <c r="J268" s="50"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
@@ -6681,14 +6705,14 @@
       <c r="B269" s="3">
         <v>2500</v>
       </c>
-      <c r="C269" s="38"/>
-      <c r="D269" s="39"/>
-      <c r="E269" s="40"/>
-      <c r="F269" s="47"/>
-      <c r="G269" s="47"/>
-      <c r="H269" s="47"/>
-      <c r="I269" s="47"/>
-      <c r="J269" s="47"/>
+      <c r="C269" s="36"/>
+      <c r="D269" s="37"/>
+      <c r="E269" s="38"/>
+      <c r="F269" s="50"/>
+      <c r="G269" s="50"/>
+      <c r="H269" s="50"/>
+      <c r="I269" s="50"/>
+      <c r="J269" s="50"/>
     </row>
     <row r="270" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
@@ -6700,18 +6724,18 @@
       <c r="C270" s="49"/>
       <c r="D270" s="49"/>
       <c r="E270" s="49"/>
-      <c r="F270" s="47"/>
-      <c r="G270" s="47"/>
-      <c r="H270" s="47"/>
-      <c r="I270" s="47"/>
-      <c r="J270" s="47"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="50"/>
+      <c r="H270" s="50"/>
+      <c r="I270" s="50"/>
+      <c r="J270" s="50"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C271" s="33"/>
+      <c r="C271" s="44"/>
       <c r="D271" s="7" t="s">
         <v>10</v>
       </c>
@@ -6724,106 +6748,415 @@
       <c r="G271" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H271" s="35"/>
-      <c r="I271" s="36"/>
-      <c r="J271" s="37"/>
+      <c r="H271" s="33"/>
+      <c r="I271" s="34"/>
+      <c r="J271" s="35"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="59" t="s">
+      <c r="A272" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="B272" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C272" s="33"/>
+      <c r="C272" s="44"/>
       <c r="D272" s="10" t="s">
         <v>106</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
-      <c r="H272" s="38"/>
-      <c r="I272" s="39"/>
-      <c r="J272" s="40"/>
+      <c r="H272" s="36"/>
+      <c r="I272" s="37"/>
+      <c r="J272" s="38"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="61"/>
-      <c r="B273" s="32" t="s">
+      <c r="B273" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="C273" s="33"/>
+      <c r="C273" s="44"/>
       <c r="D273" s="10" t="s">
         <v>215</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
-      <c r="H273" s="38"/>
-      <c r="I273" s="39"/>
-      <c r="J273" s="40"/>
+      <c r="H273" s="36"/>
+      <c r="I273" s="37"/>
+      <c r="J273" s="38"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B274" s="32" t="s">
+      <c r="B274" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C274" s="33"/>
+      <c r="C274" s="44"/>
       <c r="D274" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
-      <c r="H274" s="41"/>
-      <c r="I274" s="42"/>
-      <c r="J274" s="43"/>
+      <c r="H274" s="39"/>
+      <c r="I274" s="40"/>
+      <c r="J274" s="41"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C276" s="46"/>
+      <c r="D276" s="46"/>
+      <c r="E276" s="47"/>
+      <c r="F276" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" s="50"/>
+      <c r="H276" s="50"/>
+      <c r="I276" s="50"/>
+      <c r="J276" s="50"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C277" s="46"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="47"/>
+      <c r="F277" s="50"/>
+      <c r="G277" s="50"/>
+      <c r="H277" s="50"/>
+      <c r="I277" s="50"/>
+      <c r="J277" s="50"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C278" s="33"/>
+      <c r="D278" s="34"/>
+      <c r="E278" s="35"/>
+      <c r="F278" s="50"/>
+      <c r="G278" s="50"/>
+      <c r="H278" s="50"/>
+      <c r="I278" s="50"/>
+      <c r="J278" s="50"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" s="3">
+        <v>120</v>
+      </c>
+      <c r="C279" s="36"/>
+      <c r="D279" s="37"/>
+      <c r="E279" s="38"/>
+      <c r="F279" s="50"/>
+      <c r="G279" s="50"/>
+      <c r="H279" s="50"/>
+      <c r="I279" s="50"/>
+      <c r="J279" s="50"/>
+    </row>
+    <row r="280" spans="1:10" ht="276" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C280" s="49"/>
+      <c r="D280" s="49"/>
+      <c r="E280" s="49"/>
+      <c r="F280" s="50"/>
+      <c r="G280" s="50"/>
+      <c r="H280" s="50"/>
+      <c r="I280" s="50"/>
+      <c r="J280" s="50"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="18"/>
+      <c r="B281" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="44"/>
+      <c r="D281" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H281" s="33"/>
+      <c r="I281" s="34"/>
+      <c r="J281" s="35"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C282" s="44"/>
+      <c r="D282" s="10"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="10"/>
+      <c r="G282" s="10"/>
+      <c r="H282" s="36"/>
+      <c r="I282" s="37"/>
+      <c r="J282" s="38"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="61"/>
+      <c r="B283" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C283" s="44"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="36"/>
+      <c r="I283" s="37"/>
+      <c r="J283" s="38"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B284" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C284" s="44"/>
+      <c r="D284" s="10"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="10"/>
+      <c r="G284" s="10"/>
+      <c r="H284" s="39"/>
+      <c r="I284" s="40"/>
+      <c r="J284" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="255">
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B266:E266"/>
-    <mergeCell ref="F266:J266"/>
-    <mergeCell ref="B267:E267"/>
-    <mergeCell ref="F267:J270"/>
-    <mergeCell ref="C268:E269"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="H271:J274"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="H263:J264"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="F255:J255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="F256:J262"/>
-    <mergeCell ref="C257:E261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="H251:J253"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="F244:J244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="F245:J250"/>
-    <mergeCell ref="C246:E249"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B199:E199"/>
+  <mergeCells count="267">
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="F276:J276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="F277:J280"/>
+    <mergeCell ref="C278:E279"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="H281:J284"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:J13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C3:E6"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:J35"/>
+    <mergeCell ref="C28:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F38:J46"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C39:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F49:J57"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="C50:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F60:J70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:J80"/>
+    <mergeCell ref="C76:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H81:J82"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:J91"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="H92:J93"/>
+    <mergeCell ref="C86:E90"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:J101"/>
+    <mergeCell ref="C97:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H102:J104"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:J112"/>
+    <mergeCell ref="C108:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="H113:J117"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="F120:J125"/>
+    <mergeCell ref="C121:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="H126:J128"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="F130:J130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="F131:J137"/>
+    <mergeCell ref="C132:E136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:J142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:J148"/>
+    <mergeCell ref="C144:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="H138:J140"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:J161"/>
+    <mergeCell ref="C157:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="H149:J151"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="F171:J171"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:J177"/>
+    <mergeCell ref="C173:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H162:J169"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="B185:E185"/>
+    <mergeCell ref="F185:J190"/>
+    <mergeCell ref="C186:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="H178:J182"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="F199:J199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="F200:J205"/>
+    <mergeCell ref="C201:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="H191:J197"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="F210:J210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="F211:J214"/>
+    <mergeCell ref="C212:E213"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="H206:J208"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="F219:J219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="F220:J225"/>
+    <mergeCell ref="C221:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="H215:J217"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
     <mergeCell ref="A150:A151"/>
     <mergeCell ref="A152:J152"/>
     <mergeCell ref="B165:C165"/>
@@ -6848,195 +7181,48 @@
     <mergeCell ref="B228:C228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B219:E219"/>
-    <mergeCell ref="F219:J219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="F220:J225"/>
-    <mergeCell ref="C221:E224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="H215:J217"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="F210:J210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="F211:J214"/>
-    <mergeCell ref="C212:E213"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="H206:J208"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="F199:J199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="F200:J205"/>
-    <mergeCell ref="C201:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="H191:J197"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="F184:J184"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="F185:J190"/>
-    <mergeCell ref="C186:E189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="H178:J182"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="F171:J171"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:J177"/>
-    <mergeCell ref="C173:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H162:J169"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:J161"/>
-    <mergeCell ref="C157:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="H149:J151"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:J142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:J148"/>
-    <mergeCell ref="C144:E147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="H138:J140"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="H126:J128"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="F130:J130"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="F131:J137"/>
-    <mergeCell ref="C132:E136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="F120:J125"/>
-    <mergeCell ref="C121:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H102:J104"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="F107:J112"/>
-    <mergeCell ref="C108:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="H113:J117"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:J101"/>
-    <mergeCell ref="C97:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:J91"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H92:J93"/>
-    <mergeCell ref="C86:E90"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:J80"/>
-    <mergeCell ref="C76:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="H81:J82"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F60:J70"/>
-    <mergeCell ref="E66:E70"/>
-    <mergeCell ref="F49:J57"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="C50:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J35"/>
-    <mergeCell ref="C28:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F38:J46"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="C39:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:J13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C3:E6"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="H251:J253"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="F244:J244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="F245:J250"/>
+    <mergeCell ref="C246:E249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="H263:J264"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="F255:J255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="F256:J262"/>
+    <mergeCell ref="C257:E261"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B266:E266"/>
+    <mergeCell ref="F266:J266"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="F267:J270"/>
+    <mergeCell ref="C268:E269"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="H271:J274"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7067,35 +7253,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7104,14 +7290,14 @@
       <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -7123,11 +7309,11 @@
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7140,12 +7326,12 @@
         <v>224</v>
       </c>
       <c r="D5" s="49"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -7158,15 +7344,15 @@
         <v>227</v>
       </c>
       <c r="D6" s="49"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="72" t="s">
         <v>226</v>
       </c>
       <c r="B7" s="3">
@@ -7176,15 +7362,15 @@
         <v>229</v>
       </c>
       <c r="D7" s="49"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -7192,15 +7378,15 @@
         <v>230</v>
       </c>
       <c r="D8" s="49"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -7208,15 +7394,15 @@
         <v>231</v>
       </c>
       <c r="D9" s="49"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -7224,15 +7410,15 @@
         <v>232</v>
       </c>
       <c r="D10" s="49"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -7240,15 +7426,15 @@
         <v>233</v>
       </c>
       <c r="D11" s="49"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -7256,15 +7442,15 @@
         <v>234</v>
       </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -7272,15 +7458,15 @@
         <v>235</v>
       </c>
       <c r="D13" s="49"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -7288,15 +7474,15 @@
         <v>236</v>
       </c>
       <c r="D14" s="49"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -7304,15 +7490,15 @@
         <v>237</v>
       </c>
       <c r="D15" s="49"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -7320,15 +7506,15 @@
         <v>238</v>
       </c>
       <c r="D16" s="49"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -7336,15 +7522,15 @@
         <v>239</v>
       </c>
       <c r="D17" s="49"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -7352,15 +7538,15 @@
         <v>240</v>
       </c>
       <c r="D18" s="49"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -7368,15 +7554,15 @@
         <v>241</v>
       </c>
       <c r="D19" s="49"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -7384,15 +7570,15 @@
         <v>242</v>
       </c>
       <c r="D20" s="49"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -7400,15 +7586,15 @@
         <v>243</v>
       </c>
       <c r="D21" s="49"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -7416,21 +7602,15 @@
         <v>244</v>
       </c>
       <c r="D22" s="49"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -7447,6 +7627,12 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
